--- a/ML_PL_new/actual_tx.xlsx
+++ b/ML_PL_new/actual_tx.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -84,352 +84,352 @@
     <t>Double_X2_bet</t>
   </si>
   <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>M'gladbach</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Farense</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Estrela</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Almere City</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>AVS</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
     <t>Rio Ave</t>
   </si>
   <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Farense</t>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Monza</t>
   </si>
   <si>
     <t>Boavista</t>
   </si>
   <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
     <t>Sp Lisbon</t>
   </si>
   <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>AVS</t>
-  </si>
-  <si>
-    <t>Casa Pia</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Nacional</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Estrela</t>
-  </si>
-  <si>
-    <t>Monza</t>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>Napoli</t>
   </si>
   <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Almere City</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>M'gladbach</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>St Pauli</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
     <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>Nott'm Forest</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Betis</t>
   </si>
 </sst>
 </file>
@@ -801,7 +801,7 @@
   <dimension ref="A1:U59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="A2:C32"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45765.645833333343</v>
+        <v>45770.791666666657</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -886,49 +886,49 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>0.26126716986142517</v>
+        <v>0.59012681040793957</v>
       </c>
       <c r="E2">
-        <v>0.23206080558031081</v>
+        <v>0.21843312188778369</v>
       </c>
       <c r="F2">
-        <v>0.50667202455826343</v>
+        <v>0.19144006770427521</v>
       </c>
       <c r="G2">
-        <v>0.49332797544173601</v>
+        <v>0.80855993229572332</v>
       </c>
       <c r="H2">
-        <v>0.76793919441968861</v>
+        <v>0.78156687811221481</v>
       </c>
       <c r="I2">
-        <v>0.73873283013857427</v>
+        <v>0.40987318959205887</v>
       </c>
       <c r="J2">
-        <v>3.85</v>
+        <v>1.27</v>
       </c>
       <c r="K2">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>1.97</v>
+        <v>8</v>
       </c>
       <c r="M2">
-        <v>1.56</v>
+        <v>1.08</v>
       </c>
       <c r="N2">
-        <v>1.29</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="O2">
-        <v>1.24</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45765.645833333343</v>
+        <v>45770.791666666657</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -951,63 +951,63 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0.60246791998988991</v>
+        <v>0.18094147766377949</v>
       </c>
       <c r="E3">
-        <v>0.18599454426077669</v>
+        <v>0.1138000326312634</v>
       </c>
       <c r="F3">
-        <v>0.21153753574933451</v>
+        <v>0.70525848970495719</v>
       </c>
       <c r="G3">
-        <v>0.78846246425066657</v>
+        <v>0.29474151029504292</v>
       </c>
       <c r="H3">
-        <v>0.81400545573922445</v>
+        <v>0.88619996736873663</v>
       </c>
       <c r="I3">
-        <v>0.3975320800101112</v>
+        <v>0.81905852233622056</v>
       </c>
       <c r="J3">
-        <v>1.73</v>
+        <v>2.19</v>
       </c>
       <c r="K3">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L3">
-        <v>4.75</v>
+        <v>2.74</v>
       </c>
       <c r="M3">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="N3">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="O3">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="P3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>112</v>
+        <v>523</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45765.75</v>
+        <v>45770.833333333343</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -1016,40 +1016,40 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.59809555772223455</v>
+        <v>0.71289593641113091</v>
       </c>
       <c r="E4">
-        <v>0.14049341475476021</v>
+        <v>0.18458407786883671</v>
       </c>
       <c r="F4">
-        <v>0.2614110275230056</v>
+        <v>0.1025199857200331</v>
       </c>
       <c r="G4">
-        <v>0.73858897247699473</v>
+        <v>0.8974800142799676</v>
       </c>
       <c r="H4">
-        <v>0.85950658524524015</v>
+        <v>0.81541592213116398</v>
       </c>
       <c r="I4">
-        <v>0.40190444227776578</v>
+        <v>0.28710406358886981</v>
       </c>
       <c r="J4">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K4">
-        <v>4.9000000000000004</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="L4">
-        <v>6.75</v>
+        <v>7.75</v>
       </c>
       <c r="M4">
-        <v>1.1100000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="N4">
-        <v>1.17</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="O4">
-        <v>2.1800000000000002</v>
+        <v>2.34</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45765.854166666657</v>
+        <v>45770.833333333343</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1081,63 +1081,63 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>0.96568207876018253</v>
+        <v>0.29340857687865241</v>
       </c>
       <c r="E5">
-        <v>3.1492868934748883E-2</v>
+        <v>0.4012548291321294</v>
       </c>
       <c r="F5">
-        <v>2.8250523050680231E-3</v>
+        <v>0.3053365939892177</v>
       </c>
       <c r="G5">
-        <v>0.99717494769493142</v>
+        <v>0.6946634060107818</v>
       </c>
       <c r="H5">
-        <v>0.96850713106525055</v>
+        <v>0.59874517086787016</v>
       </c>
       <c r="I5">
-        <v>3.4317921239816897E-2</v>
+        <v>0.70659142312134704</v>
       </c>
       <c r="J5">
-        <v>1.1499999999999999</v>
+        <v>1.86</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L5">
-        <v>16.5</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="M5">
-        <v>1.03</v>
+        <v>1.22</v>
       </c>
       <c r="N5">
-        <v>1.0900000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="O5">
-        <v>2.98</v>
+        <v>1.62</v>
       </c>
       <c r="P5">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S5">
-        <v>1252</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45765.864583333343</v>
+        <v>45770.895833333343</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -1146,63 +1146,63 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.64221433961620511</v>
+        <v>4.956020222616437E-2</v>
       </c>
       <c r="E6">
-        <v>0.15585762276368439</v>
+        <v>6.464535716648892E-2</v>
       </c>
       <c r="F6">
-        <v>0.20192803762010891</v>
+        <v>0.88579444060734847</v>
       </c>
       <c r="G6">
-        <v>0.79807196237988953</v>
+        <v>0.1142055593926533</v>
       </c>
       <c r="H6">
-        <v>0.84414237723631402</v>
+        <v>0.93535464283351288</v>
       </c>
       <c r="I6">
-        <v>0.35778566038379328</v>
+        <v>0.95043979777383736</v>
       </c>
       <c r="J6">
-        <v>1.78</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L6">
-        <v>4.45</v>
+        <v>3.35</v>
       </c>
       <c r="M6">
-        <v>1.1599999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="N6">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="O6">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="P6">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>300</v>
+        <v>794</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45765.875</v>
+        <v>45770.895833333343</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -1211,40 +1211,40 @@
         <v>32</v>
       </c>
       <c r="D7">
-        <v>4.5333835294792173E-2</v>
+        <v>7.6734713637864937E-2</v>
       </c>
       <c r="E7">
-        <v>0.15370336336977999</v>
+        <v>0.11544670023681509</v>
       </c>
       <c r="F7">
-        <v>0.8009628013354283</v>
+        <v>0.80781858612532098</v>
       </c>
       <c r="G7">
-        <v>0.1990371986645722</v>
+        <v>0.19218141387467999</v>
       </c>
       <c r="H7">
-        <v>0.84629663663022048</v>
+        <v>0.88455329976318597</v>
       </c>
       <c r="I7">
-        <v>0.95466616470520826</v>
+        <v>0.92326528636213612</v>
       </c>
       <c r="J7">
-        <v>2.4300000000000002</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="K7">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>1.61</v>
       </c>
       <c r="M7">
-        <v>1.32</v>
+        <v>1.8</v>
       </c>
       <c r="N7">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="O7">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1253,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>334</v>
+        <v>437</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="U7">
-        <v>871</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45766.583333333343</v>
+        <v>45771.78125</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -1276,63 +1276,63 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>0.23548641373917431</v>
+        <v>0.83519306998152854</v>
       </c>
       <c r="E8">
-        <v>0.1679048195778578</v>
+        <v>0.108573552337247</v>
       </c>
       <c r="F8">
-        <v>0.59660876668296625</v>
+        <v>5.6233377681225563E-2</v>
       </c>
       <c r="G8">
-        <v>0.40339123331703208</v>
+        <v>0.94376662231877551</v>
       </c>
       <c r="H8">
-        <v>0.83209518042214059</v>
+        <v>0.89142644766275414</v>
       </c>
       <c r="I8">
-        <v>0.76451358626082411</v>
+        <v>0.1648069300184726</v>
       </c>
       <c r="J8">
-        <v>2.06</v>
+        <v>1.35</v>
       </c>
       <c r="K8">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>7.75</v>
       </c>
       <c r="M8">
-        <v>1.28</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N8">
-        <v>1.31</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="O8">
-        <v>1.48</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="T8">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="U8">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45766.625</v>
+        <v>45771.791666666657</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -1341,40 +1341,40 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>0.1655509990309483</v>
+        <v>0.1043564270489751</v>
       </c>
       <c r="E9">
-        <v>0.16394715737541291</v>
+        <v>0.17645325093672981</v>
       </c>
       <c r="F9">
-        <v>0.67050184359363896</v>
+        <v>0.71919032201429389</v>
       </c>
       <c r="G9">
-        <v>0.32949815640636121</v>
+        <v>0.28080967798570489</v>
       </c>
       <c r="H9">
-        <v>0.83605284262458723</v>
+        <v>0.82354674906326897</v>
       </c>
       <c r="I9">
-        <v>0.83444900096905184</v>
+        <v>0.8956435729510237</v>
       </c>
       <c r="J9">
-        <v>3.65</v>
+        <v>2.29</v>
       </c>
       <c r="K9">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="L9">
-        <v>1.86</v>
+        <v>2.88</v>
       </c>
       <c r="M9">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="N9">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O9">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1383,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="U9">
-        <v>167</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45766.625</v>
+        <v>45771.791666666657</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -1406,63 +1406,63 @@
         <v>38</v>
       </c>
       <c r="D10">
-        <v>0.41094707788024259</v>
+        <v>0.55391839276294141</v>
       </c>
       <c r="E10">
-        <v>0.3870397273970021</v>
+        <v>0.22472659550307031</v>
       </c>
       <c r="F10">
-        <v>0.20201319472275489</v>
+        <v>0.22135501173398811</v>
       </c>
       <c r="G10">
-        <v>0.79798680527724475</v>
+        <v>0.7786449882660117</v>
       </c>
       <c r="H10">
-        <v>0.61296027260299746</v>
+        <v>0.7752734044969295</v>
       </c>
       <c r="I10">
-        <v>0.58905292211975702</v>
+        <v>0.44608160723705842</v>
       </c>
       <c r="J10">
-        <v>1.37</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="K10">
-        <v>4.55</v>
+        <v>3.05</v>
       </c>
       <c r="L10">
-        <v>6.25</v>
+        <v>3.1</v>
       </c>
       <c r="M10">
-        <v>1.1100000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="N10">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="O10">
-        <v>2.17</v>
+        <v>1.44</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="Q10">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="U10">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45766.625</v>
+        <v>45771.875</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -1471,40 +1471,40 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>0.19505544903972841</v>
+        <v>5.8078495871425207E-3</v>
       </c>
       <c r="E11">
-        <v>0.16558162576769819</v>
+        <v>0.1189721560661007</v>
       </c>
       <c r="F11">
-        <v>0.63936292519257254</v>
+        <v>0.8752199943467569</v>
       </c>
       <c r="G11">
-        <v>0.36063707480742663</v>
+        <v>0.1247800056532432</v>
       </c>
       <c r="H11">
-        <v>0.83441837423230092</v>
+        <v>0.88102784393389943</v>
       </c>
       <c r="I11">
-        <v>0.80494455096027073</v>
+        <v>0.99419215041285758</v>
       </c>
       <c r="J11">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="K11">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="L11">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="M11">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="N11">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="O11">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1513,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>134</v>
+        <v>588</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>166</v>
+        <v>371</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45766.625</v>
+        <v>45771.895833333343</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -1536,46 +1536,46 @@
         <v>42</v>
       </c>
       <c r="D12">
-        <v>0.246979862070313</v>
+        <v>0.81594260517504247</v>
       </c>
       <c r="E12">
-        <v>0.38867417021869149</v>
+        <v>0.1011277250816707</v>
       </c>
       <c r="F12">
-        <v>0.3643459677109952</v>
+        <v>8.2929669743287318E-2</v>
       </c>
       <c r="G12">
-        <v>0.63565403228900452</v>
+        <v>0.91707033025671314</v>
       </c>
       <c r="H12">
-        <v>0.61132582978130823</v>
+        <v>0.89887227491832977</v>
       </c>
       <c r="I12">
-        <v>0.75302013792968669</v>
+        <v>0.184057394824958</v>
       </c>
       <c r="J12">
-        <v>2.61</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K12">
-        <v>3.45</v>
+        <v>6.75</v>
       </c>
       <c r="L12">
-        <v>2.27</v>
+        <v>12.5</v>
       </c>
       <c r="M12">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="N12">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="O12">
-        <v>1.4</v>
+        <v>3.05</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1587,12 +1587,12 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45766.625</v>
+        <v>45771.895833333343</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -1601,63 +1601,63 @@
         <v>44</v>
       </c>
       <c r="D13">
-        <v>9.8835527983042928E-3</v>
+        <v>0.73043306067922298</v>
       </c>
       <c r="E13">
-        <v>0.1716423650480858</v>
+        <v>0.1390296966361794</v>
       </c>
       <c r="F13">
-        <v>0.81847408215360928</v>
+        <v>0.13053724268459649</v>
       </c>
       <c r="G13">
-        <v>0.18152591784639011</v>
+        <v>0.86946275731540235</v>
       </c>
       <c r="H13">
-        <v>0.82835763495191361</v>
+        <v>0.86097030336381941</v>
       </c>
       <c r="I13">
-        <v>0.99011644720169512</v>
+        <v>0.26956693932077591</v>
       </c>
       <c r="J13">
-        <v>2.1800000000000002</v>
+        <v>1.45</v>
       </c>
       <c r="K13">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L13">
-        <v>2.69</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>1.38</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N13">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="O13">
-        <v>1.43</v>
+        <v>2.02</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="U13">
-        <v>966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45766.645833333343</v>
+        <v>45772.78125</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -1666,40 +1666,40 @@
         <v>46</v>
       </c>
       <c r="D14">
-        <v>1.520461486705945E-4</v>
+        <v>1.520645777623192E-2</v>
       </c>
       <c r="E14">
-        <v>3.9235013627352468E-2</v>
+        <v>0.14859234525598811</v>
       </c>
       <c r="F14">
-        <v>0.96061294022397525</v>
+        <v>0.83620119696777928</v>
       </c>
       <c r="G14">
-        <v>3.938705977602306E-2</v>
+        <v>0.16379880303222</v>
       </c>
       <c r="H14">
-        <v>0.96076498637264585</v>
+        <v>0.85140765474401126</v>
       </c>
       <c r="I14">
-        <v>0.99984795385132774</v>
+        <v>0.98479354222376736</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L14">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="M14">
-        <v>2.72</v>
+        <v>1.69</v>
       </c>
       <c r="N14">
-        <v>1.1000000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="O14">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1708,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>909</v>
+        <v>503</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>738</v>
+        <v>206</v>
       </c>
       <c r="U14">
-        <v>1344</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45766.645833333343</v>
+        <v>45772.854166666657</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
@@ -1731,63 +1731,63 @@
         <v>48</v>
       </c>
       <c r="D15">
-        <v>0.17120763928262181</v>
+        <v>0.61960828507810584</v>
       </c>
       <c r="E15">
-        <v>0.36503556200075937</v>
+        <v>0.21885249122130909</v>
       </c>
       <c r="F15">
-        <v>0.4637567987166204</v>
+        <v>0.16153922370058529</v>
       </c>
       <c r="G15">
-        <v>0.53624320128338121</v>
+        <v>0.83846077629941496</v>
       </c>
       <c r="H15">
-        <v>0.63496443799924218</v>
+        <v>0.7811475087786911</v>
       </c>
       <c r="I15">
-        <v>0.82879236071737972</v>
+        <v>0.38039171492189439</v>
       </c>
       <c r="J15">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="K15">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L15">
-        <v>2.2799999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="M15">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="N15">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="O15">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45766.645833333343</v>
+        <v>45772.854166666657</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -1796,40 +1796,40 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>0.79774252223302589</v>
+        <v>0.1042526462938311</v>
       </c>
       <c r="E16">
-        <v>0.11061487073443441</v>
+        <v>0.10244653871118931</v>
       </c>
       <c r="F16">
-        <v>9.164260703254154E-2</v>
+        <v>0.79330081499498062</v>
       </c>
       <c r="G16">
-        <v>0.90835739296746032</v>
+        <v>0.20669918500502041</v>
       </c>
       <c r="H16">
-        <v>0.88938512926556745</v>
+        <v>0.89755346128881175</v>
       </c>
       <c r="I16">
-        <v>0.20225747776697589</v>
+        <v>0.89574735370616998</v>
       </c>
       <c r="J16">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="K16">
+        <v>4.75</v>
+      </c>
+      <c r="L16">
         <v>5.75</v>
       </c>
-      <c r="L16">
-        <v>8</v>
-      </c>
       <c r="M16">
-        <v>1.07</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N16">
-        <v>1.1100000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="O16">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1838,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45766.645833333343</v>
+        <v>45772.864583333343</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
@@ -1861,63 +1861,63 @@
         <v>52</v>
       </c>
       <c r="D17">
-        <v>0.2656167151688788</v>
+        <v>0.8063409812208977</v>
       </c>
       <c r="E17">
-        <v>0.4204239357453568</v>
+        <v>0.14467361718526589</v>
       </c>
       <c r="F17">
-        <v>0.31395934908576439</v>
+        <v>4.8985401593835208E-2</v>
       </c>
       <c r="G17">
-        <v>0.68604065091423561</v>
+        <v>0.95101459840616354</v>
       </c>
       <c r="H17">
-        <v>0.57957606425464325</v>
+        <v>0.85532638281473294</v>
       </c>
       <c r="I17">
-        <v>0.73438328483112114</v>
+        <v>0.19365901877910111</v>
       </c>
       <c r="J17">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="K17">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L17">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="M17">
-        <v>1.23</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="N17">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="O17">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="Q17">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="U17">
-        <v>289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45766.645833333343</v>
+        <v>45772.864583333343</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -1926,63 +1926,63 @@
         <v>54</v>
       </c>
       <c r="D18">
-        <v>0.62279823651147537</v>
+        <v>0.43903542432202819</v>
       </c>
       <c r="E18">
-        <v>0.17045757424625449</v>
+        <v>0.25930126596754738</v>
       </c>
       <c r="F18">
-        <v>0.2067441892422695</v>
+        <v>0.30166330971042271</v>
       </c>
       <c r="G18">
-        <v>0.79325581075772988</v>
+        <v>0.69833669028957557</v>
       </c>
       <c r="H18">
-        <v>0.82954242575374493</v>
+        <v>0.7406987340324509</v>
       </c>
       <c r="I18">
-        <v>0.37720176348852402</v>
+        <v>0.56096457567797009</v>
       </c>
       <c r="J18">
-        <v>2.15</v>
+        <v>1.17</v>
       </c>
       <c r="K18">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>3.35</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="N18">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O18">
-        <v>1.48</v>
+        <v>2.85</v>
       </c>
       <c r="P18">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45766.645833333343</v>
+        <v>45772.875</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -1991,55 +1991,55 @@
         <v>56</v>
       </c>
       <c r="D19">
-        <v>0.52472537980912171</v>
+        <v>0.95579018998411713</v>
       </c>
       <c r="E19">
-        <v>0.15392853825112571</v>
+        <v>3.7106708756889997E-2</v>
       </c>
       <c r="F19">
-        <v>0.32134608193975223</v>
+        <v>7.1031012589930316E-3</v>
       </c>
       <c r="G19">
-        <v>0.67865391806024744</v>
+        <v>0.99289689874100717</v>
       </c>
       <c r="H19">
-        <v>0.84607146174887393</v>
+        <v>0.96289329124311018</v>
       </c>
       <c r="I19">
-        <v>0.47527462019087802</v>
+        <v>4.4209810015883033E-2</v>
       </c>
       <c r="J19">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="K19">
-        <v>4.0999999999999996</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>4.25</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="N19">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O19">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1158</v>
       </c>
       <c r="T19">
-        <v>91</v>
+        <v>769</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45766.645833333343</v>
+        <v>45773.520833333343</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
@@ -2056,63 +2056,63 @@
         <v>58</v>
       </c>
       <c r="D20">
-        <v>0.35141224449678021</v>
+        <v>0.94968910982155907</v>
       </c>
       <c r="E20">
-        <v>0.19594261898444701</v>
+        <v>4.4808246336040393E-2</v>
       </c>
       <c r="F20">
-        <v>0.45264513651877292</v>
+        <v>5.5026438424011243E-3</v>
       </c>
       <c r="G20">
-        <v>0.54735486348122719</v>
+        <v>0.99449735615759949</v>
       </c>
       <c r="H20">
-        <v>0.80405738101555313</v>
+        <v>0.95519175366396025</v>
       </c>
       <c r="I20">
-        <v>0.6485877555032199</v>
+        <v>5.0310890178441522E-2</v>
       </c>
       <c r="J20">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="K20">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="M20">
-        <v>1.26</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="N20">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="O20">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="T20">
-        <v>23</v>
+        <v>870</v>
       </c>
       <c r="U20">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45766.677083333343</v>
+        <v>45773.604166666657</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -2121,63 +2121,63 @@
         <v>60</v>
       </c>
       <c r="D21">
-        <v>0.94916812249374605</v>
+        <v>0.22070398902320809</v>
       </c>
       <c r="E21">
-        <v>3.9957512111619298E-2</v>
+        <v>0.16015508147318591</v>
       </c>
       <c r="F21">
-        <v>1.0874365394635909E-2</v>
+        <v>0.61914092950360677</v>
       </c>
       <c r="G21">
-        <v>0.9891256346053654</v>
+        <v>0.380859070496394</v>
       </c>
       <c r="H21">
-        <v>0.96004248788838198</v>
+        <v>0.83984491852681487</v>
       </c>
       <c r="I21">
-        <v>5.0831877506255209E-2</v>
+        <v>0.77929601097679269</v>
       </c>
       <c r="J21">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>8.25</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="M21">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="N21">
-        <v>1.1000000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="O21">
-        <v>2.65</v>
+        <v>1.63</v>
       </c>
       <c r="P21">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="S21">
-        <v>1113</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>728</v>
+        <v>299</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45766.708333333343</v>
+        <v>45773.625</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -2186,63 +2186,63 @@
         <v>62</v>
       </c>
       <c r="D22">
-        <v>0.97144492567564766</v>
+        <v>0.45023464072228447</v>
       </c>
       <c r="E22">
-        <v>2.6290416725344021E-2</v>
+        <v>0.2036039113870502</v>
       </c>
       <c r="F22">
-        <v>2.264657599010152E-3</v>
+        <v>0.34616144789066561</v>
       </c>
       <c r="G22">
-        <v>0.99773534240099171</v>
+        <v>0.65383855210933461</v>
       </c>
       <c r="H22">
-        <v>0.97370958327465784</v>
+        <v>0.79639608861295008</v>
       </c>
       <c r="I22">
-        <v>2.8555074324354179E-2</v>
+        <v>0.54976535927771586</v>
       </c>
       <c r="J22">
-        <v>1.08</v>
+        <v>1.52</v>
       </c>
       <c r="K22">
-        <v>8.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M22">
-        <v>1.03</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N22">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>1.92</v>
       </c>
       <c r="P22">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S22">
-        <v>1279</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45766.729166666657</v>
+        <v>45773.625</v>
       </c>
       <c r="B23" t="s">
         <v>63</v>
@@ -2251,46 +2251,46 @@
         <v>64</v>
       </c>
       <c r="D23">
-        <v>0.52520721304557405</v>
+        <v>5.6037273672682443E-2</v>
       </c>
       <c r="E23">
-        <v>0.17000910614531839</v>
+        <v>0.34892471521073609</v>
       </c>
       <c r="F23">
-        <v>0.30478368080910762</v>
+        <v>0.59503801111658028</v>
       </c>
       <c r="G23">
-        <v>0.69521631919089244</v>
+        <v>0.40496198888341861</v>
       </c>
       <c r="H23">
-        <v>0.82999089385468161</v>
+        <v>0.65107528478926269</v>
       </c>
       <c r="I23">
-        <v>0.474792786954426</v>
+        <v>0.94396272632731637</v>
       </c>
       <c r="J23">
-        <v>2.11</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L23">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="M23">
-        <v>1.36</v>
+        <v>1.94</v>
       </c>
       <c r="N23">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="O23">
-        <v>1.46</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P23">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2299,15 +2299,15 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45766.75</v>
+        <v>45773.625</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
@@ -2316,63 +2316,63 @@
         <v>66</v>
       </c>
       <c r="D24">
-        <v>0.1581734720171048</v>
+        <v>0.98167102938951634</v>
       </c>
       <c r="E24">
-        <v>0.32385818718807652</v>
+        <v>1.748515036092109E-2</v>
       </c>
       <c r="F24">
-        <v>0.51796834079481935</v>
+        <v>8.4382024956425718E-4</v>
       </c>
       <c r="G24">
-        <v>0.48203165920518132</v>
+        <v>0.99915617975043747</v>
       </c>
       <c r="H24">
-        <v>0.67614181281192409</v>
+        <v>0.98251484963908065</v>
       </c>
       <c r="I24">
-        <v>0.84182652798289581</v>
+        <v>1.832897061048535E-2</v>
       </c>
       <c r="J24">
-        <v>1.84</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K24">
-        <v>3.55</v>
+        <v>7</v>
       </c>
       <c r="L24">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="M24">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="N24">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="O24">
-        <v>1.64</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1063</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1343</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>978</v>
       </c>
       <c r="U24">
-        <v>518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45766.75</v>
+        <v>45773.625</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -2381,43 +2381,43 @@
         <v>68</v>
       </c>
       <c r="D25">
-        <v>3.0984899406572269E-2</v>
+        <v>0.64269735109671078</v>
       </c>
       <c r="E25">
-        <v>0.17578795508762729</v>
+        <v>0.22086115325721081</v>
       </c>
       <c r="F25">
-        <v>0.79322714550579909</v>
+        <v>0.13644149564607741</v>
       </c>
       <c r="G25">
-        <v>0.20677285449419949</v>
+        <v>0.86355850435392156</v>
       </c>
       <c r="H25">
-        <v>0.82421204491237132</v>
+        <v>0.77913884674278822</v>
       </c>
       <c r="I25">
-        <v>0.96901510059342644</v>
+        <v>0.35730264890328822</v>
       </c>
       <c r="J25">
-        <v>11.5</v>
+        <v>1.69</v>
       </c>
       <c r="K25">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L25">
+        <v>4.45</v>
+      </c>
+      <c r="M25">
         <v>1.18</v>
       </c>
-      <c r="M25">
-        <v>2.78</v>
-      </c>
       <c r="N25">
-        <v>1.1100000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="O25">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2426,18 +2426,18 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45766.75</v>
+        <v>45773.645833333343</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
@@ -2446,40 +2446,40 @@
         <v>70</v>
       </c>
       <c r="D26">
-        <v>0.17171266354707429</v>
+        <v>0.31033087875223148</v>
       </c>
       <c r="E26">
-        <v>0.25248120575103272</v>
+        <v>0.13737213377465479</v>
       </c>
       <c r="F26">
-        <v>0.57580613070189413</v>
+        <v>0.55229698747311418</v>
       </c>
       <c r="G26">
-        <v>0.42419386929810698</v>
+        <v>0.44770301252688632</v>
       </c>
       <c r="H26">
-        <v>0.74751879424896839</v>
+        <v>0.86262786622534571</v>
       </c>
       <c r="I26">
-        <v>0.82828733645292685</v>
+        <v>0.68966912124776902</v>
       </c>
       <c r="J26">
-        <v>4.0999999999999996</v>
+        <v>1.26</v>
       </c>
       <c r="K26">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>1.83</v>
+        <v>8.5</v>
       </c>
       <c r="M26">
-        <v>1.64</v>
+        <v>1.07</v>
       </c>
       <c r="N26">
-        <v>1.26</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="O26">
-        <v>1.22</v>
+        <v>2.48</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2497,12 +2497,12 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>56</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45766.770833333343</v>
+        <v>45773.645833333343</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
@@ -2511,40 +2511,40 @@
         <v>72</v>
       </c>
       <c r="D27">
-        <v>0.1204395466954182</v>
+        <v>3.8630599943846898E-2</v>
       </c>
       <c r="E27">
-        <v>0.19353620034687119</v>
+        <v>0.22024361711497781</v>
       </c>
       <c r="F27">
-        <v>0.68602425295771219</v>
+        <v>0.7411257829411757</v>
       </c>
       <c r="G27">
-        <v>0.31397574704228942</v>
+        <v>0.25887421705882468</v>
       </c>
       <c r="H27">
-        <v>0.80646379965313042</v>
+        <v>0.77975638288502258</v>
       </c>
       <c r="I27">
-        <v>0.87956045330458332</v>
+        <v>0.96136940005615346</v>
       </c>
       <c r="J27">
-        <v>2.79</v>
+        <v>2.94</v>
       </c>
       <c r="K27">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="L27">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="M27">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="N27">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="O27">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2553,21 +2553,21 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>572</v>
+        <v>907</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45766.770833333343</v>
+        <v>45773.645833333343</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
@@ -2576,55 +2576,55 @@
         <v>74</v>
       </c>
       <c r="D28">
-        <v>0.57945213255611916</v>
+        <v>0.93488574792698975</v>
       </c>
       <c r="E28">
-        <v>0.15985948992033461</v>
+        <v>5.9000205656249798E-2</v>
       </c>
       <c r="F28">
-        <v>0.26068837752354701</v>
+        <v>6.1140464167609493E-3</v>
       </c>
       <c r="G28">
-        <v>0.73931162247645377</v>
+        <v>0.9938859535832395</v>
       </c>
       <c r="H28">
-        <v>0.84014051007966617</v>
+        <v>0.9409997943437507</v>
       </c>
       <c r="I28">
-        <v>0.42054786744388162</v>
+        <v>6.5114252073010748E-2</v>
       </c>
       <c r="J28">
-        <v>1.7</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K28">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="L28">
-        <v>4.7</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="N28">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="O28">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1155</v>
       </c>
       <c r="T28">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45766.791666666657</v>
+        <v>45773.645833333343</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
@@ -2641,63 +2641,63 @@
         <v>76</v>
       </c>
       <c r="D29">
-        <v>0.93179670914845003</v>
+        <v>1.0844803222017949E-2</v>
       </c>
       <c r="E29">
-        <v>6.305482596419297E-2</v>
+        <v>0.1541436466837901</v>
       </c>
       <c r="F29">
-        <v>5.1484648873581108E-3</v>
+        <v>0.83501155009419137</v>
       </c>
       <c r="G29">
-        <v>0.99485153511264302</v>
+        <v>0.16498844990580799</v>
       </c>
       <c r="H29">
-        <v>0.93694517403580813</v>
+        <v>0.84585635331620934</v>
       </c>
       <c r="I29">
-        <v>6.8203290851551079E-2</v>
+        <v>0.98915519677798147</v>
       </c>
       <c r="J29">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>4.6500000000000004</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="L29">
-        <v>4.95</v>
+        <v>1.61</v>
       </c>
       <c r="M29">
-        <v>1.1499999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="N29">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="O29">
-        <v>2.0299999999999998</v>
+        <v>1.21</v>
       </c>
       <c r="P29">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="S29">
-        <v>1193</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>691</v>
+        <v>89</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45766.833333333343</v>
+        <v>45773.645833333343</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -2706,40 +2706,40 @@
         <v>78</v>
       </c>
       <c r="D30">
-        <v>6.2656694868437807E-2</v>
+        <v>1.636410584005361E-2</v>
       </c>
       <c r="E30">
-        <v>0.11686185946877239</v>
+        <v>9.0156208069171045E-2</v>
       </c>
       <c r="F30">
-        <v>0.82048144566278969</v>
+        <v>0.89347968609077388</v>
       </c>
       <c r="G30">
-        <v>0.1795185543372102</v>
+        <v>0.1065203139092247</v>
       </c>
       <c r="H30">
-        <v>0.88313814053122752</v>
+        <v>0.90984379193082754</v>
       </c>
       <c r="I30">
-        <v>0.93734330513156205</v>
+        <v>0.9836358941599449</v>
       </c>
       <c r="J30">
-        <v>5.75</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="K30">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L30">
-        <v>1.44</v>
+        <v>2.93</v>
       </c>
       <c r="M30">
-        <v>2.0499999999999998</v>
+        <v>1.33</v>
       </c>
       <c r="N30">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="O30">
-        <v>1.1299999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2754,15 +2754,15 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>322</v>
+        <v>628</v>
       </c>
       <c r="U30">
-        <v>576</v>
+        <v>911</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45766.833333333343</v>
+        <v>45773.708333333343</v>
       </c>
       <c r="B31" t="s">
         <v>79</v>
@@ -2771,43 +2771,43 @@
         <v>80</v>
       </c>
       <c r="D31">
-        <v>0.95150261906561939</v>
+        <v>0.89457243072003434</v>
       </c>
       <c r="E31">
-        <v>3.905811024341533E-2</v>
+        <v>8.8277478417779179E-2</v>
       </c>
       <c r="F31">
-        <v>9.4392706909646028E-3</v>
+        <v>1.7150090862187502E-2</v>
       </c>
       <c r="G31">
-        <v>0.99056072930903472</v>
+        <v>0.98284990913781356</v>
       </c>
       <c r="H31">
-        <v>0.96094188975658401</v>
+        <v>0.91172252158222189</v>
       </c>
       <c r="I31">
-        <v>4.8497380934379927E-2</v>
+        <v>0.1054275692799667</v>
       </c>
       <c r="J31">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="K31">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="M31">
-        <v>1.17</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N31">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="O31">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="P31">
-        <v>781</v>
+        <v>651</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>1142</v>
+        <v>1079</v>
       </c>
       <c r="T31">
-        <v>915</v>
+        <v>510</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45766.854166666657</v>
+        <v>45773.75</v>
       </c>
       <c r="B32" t="s">
         <v>81</v>
@@ -2836,40 +2836,40 @@
         <v>82</v>
       </c>
       <c r="D32">
-        <v>1.291026748478906E-3</v>
+        <v>7.7066500088993156E-2</v>
       </c>
       <c r="E32">
-        <v>0.11676721969213349</v>
+        <v>0.17294639578890481</v>
       </c>
       <c r="F32">
-        <v>0.88194175355938609</v>
+        <v>0.74998710412210368</v>
       </c>
       <c r="G32">
-        <v>0.1180582464406124</v>
+        <v>0.25001289587789799</v>
       </c>
       <c r="H32">
-        <v>0.88323278030786501</v>
+        <v>0.82705360421109686</v>
       </c>
       <c r="I32">
-        <v>0.99870897325151953</v>
+        <v>0.92293349991100848</v>
       </c>
       <c r="J32">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="K32">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="L32">
-        <v>1.52</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>1.97</v>
+        <v>1.28</v>
       </c>
       <c r="N32">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="O32">
-        <v>1.1399999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2878,21 +2878,21 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>616</v>
+        <v>265</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="U32">
-        <v>1240</v>
+        <v>732</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45766.864583333343</v>
+        <v>45773.75</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
@@ -2901,55 +2901,55 @@
         <v>84</v>
       </c>
       <c r="D33">
-        <v>0.57933679277647654</v>
+        <v>0.75652969044727503</v>
       </c>
       <c r="E33">
-        <v>0.25219181367982002</v>
+        <v>0.14205890118308481</v>
       </c>
       <c r="F33">
-        <v>0.16847139354370219</v>
+        <v>0.1014114083696416</v>
       </c>
       <c r="G33">
-        <v>0.83152860645629656</v>
+        <v>0.89858859163035987</v>
       </c>
       <c r="H33">
-        <v>0.74780818632017876</v>
+        <v>0.8579410988169166</v>
       </c>
       <c r="I33">
-        <v>0.42066320722352218</v>
+        <v>0.24347030955272639</v>
       </c>
       <c r="J33">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="K33">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="M33">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="N33">
-        <v>1.1599999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="O33">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45766.878472222219</v>
+        <v>45773.770833333343</v>
       </c>
       <c r="B34" t="s">
         <v>85</v>
@@ -2966,46 +2966,46 @@
         <v>86</v>
       </c>
       <c r="D34">
-        <v>0.7281294339123846</v>
+        <v>0.37825277566890869</v>
       </c>
       <c r="E34">
-        <v>0.20871151049254369</v>
+        <v>0.32408163664625839</v>
       </c>
       <c r="F34">
-        <v>6.3159055595070554E-2</v>
+        <v>0.2976655876848317</v>
       </c>
       <c r="G34">
-        <v>0.93684094440492827</v>
+        <v>0.70233441231516713</v>
       </c>
       <c r="H34">
-        <v>0.79128848950745512</v>
+        <v>0.67591836335374045</v>
       </c>
       <c r="I34">
-        <v>0.27187056608761417</v>
+        <v>0.62174722433109009</v>
       </c>
       <c r="J34">
-        <v>1.1299999999999999</v>
+        <v>1.99</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="M34">
-        <v>1.04</v>
+        <v>1.34</v>
       </c>
       <c r="N34">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="O34">
-        <v>3.05</v>
+        <v>1.52</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45767.510416666657</v>
+        <v>45773.791666666657</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
@@ -3031,40 +3031,40 @@
         <v>88</v>
       </c>
       <c r="D35">
-        <v>5.0636275133937488E-3</v>
+        <v>3.4086796223909747E-2</v>
       </c>
       <c r="E35">
-        <v>4.1251276021132051E-2</v>
+        <v>0.16215052368449109</v>
       </c>
       <c r="F35">
-        <v>0.9536850964654745</v>
+        <v>0.80376268009159979</v>
       </c>
       <c r="G35">
-        <v>4.6314903534525803E-2</v>
+        <v>0.19623731990840079</v>
       </c>
       <c r="H35">
-        <v>0.95874872397886823</v>
+        <v>0.83784947631550954</v>
       </c>
       <c r="I35">
-        <v>0.9949363724866066</v>
+        <v>0.96591320377609091</v>
       </c>
       <c r="J35">
-        <v>3.55</v>
+        <v>6.25</v>
       </c>
       <c r="K35">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>1.91</v>
+        <v>1.33</v>
       </c>
       <c r="M35">
-        <v>1.6</v>
+        <v>2.27</v>
       </c>
       <c r="N35">
-        <v>1.24</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="O35">
-        <v>1.27</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3073,21 +3073,21 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>675</v>
+        <v>225</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>907</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>1098</v>
+        <v>844</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45767.583333333343</v>
+        <v>45773.854166666657</v>
       </c>
       <c r="B36" t="s">
         <v>89</v>
@@ -3096,63 +3096,63 @@
         <v>90</v>
       </c>
       <c r="D36">
-        <v>0.36990700987087499</v>
+        <v>8.6774384445865632E-2</v>
       </c>
       <c r="E36">
-        <v>0.29198157224620308</v>
+        <v>3.5167502164121317E-2</v>
       </c>
       <c r="F36">
-        <v>0.3381114178829206</v>
+        <v>0.87805811339001438</v>
       </c>
       <c r="G36">
-        <v>0.66188858211707813</v>
+        <v>0.12194188660998689</v>
       </c>
       <c r="H36">
-        <v>0.70801842775379553</v>
+        <v>0.96483249783587999</v>
       </c>
       <c r="I36">
-        <v>0.63009299012912368</v>
+        <v>0.91322561555413573</v>
       </c>
       <c r="J36">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="K36">
-        <v>3.45</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="L36">
+        <v>1.41</v>
+      </c>
+      <c r="M36">
         <v>2.15</v>
       </c>
-      <c r="M36">
-        <v>1.45</v>
-      </c>
       <c r="N36">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="O36">
-        <v>1.36</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45767.583333333343</v>
+        <v>45773.864583333343</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
@@ -3161,40 +3161,40 @@
         <v>92</v>
       </c>
       <c r="D37">
-        <v>2.131399524756902E-3</v>
+        <v>0.68278317972399516</v>
       </c>
       <c r="E37">
-        <v>0.13994274783196731</v>
+        <v>0.11418775809724541</v>
       </c>
       <c r="F37">
-        <v>0.85792585264327548</v>
+        <v>0.20302906217875921</v>
       </c>
       <c r="G37">
-        <v>0.14207414735672419</v>
+        <v>0.79697093782124062</v>
       </c>
       <c r="H37">
-        <v>0.86005725216803242</v>
+        <v>0.88581224190275432</v>
       </c>
       <c r="I37">
-        <v>0.99786860047524284</v>
+        <v>0.31721682027600462</v>
       </c>
       <c r="J37">
-        <v>7.5</v>
+        <v>1.41</v>
       </c>
       <c r="K37">
-        <v>4.8</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="L37">
-        <v>1.3</v>
+        <v>5.75</v>
       </c>
       <c r="M37">
-        <v>2.34</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N37">
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="O37">
-        <v>1.0900000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3203,21 +3203,21 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>422</v>
+        <v>9</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="U37">
-        <v>1277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45767.583333333343</v>
+        <v>45773.878472222219</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
@@ -3226,49 +3226,49 @@
         <v>94</v>
       </c>
       <c r="D38">
-        <v>0.2269095793455822</v>
+        <v>0.23163288471434651</v>
       </c>
       <c r="E38">
-        <v>0.30222995444896111</v>
+        <v>0.36183664315539371</v>
       </c>
       <c r="F38">
-        <v>0.47086046620545841</v>
+        <v>0.40653047213026078</v>
       </c>
       <c r="G38">
-        <v>0.52913953379454326</v>
+        <v>0.59346952786974017</v>
       </c>
       <c r="H38">
-        <v>0.69777004555104061</v>
+        <v>0.63816335684460723</v>
       </c>
       <c r="I38">
-        <v>0.77309042065441957</v>
+        <v>0.76836711528565449</v>
       </c>
       <c r="J38">
-        <v>4.45</v>
+        <v>1.65</v>
       </c>
       <c r="K38">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L38">
-        <v>1.66</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M38">
-        <v>1.75</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N38">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="O38">
-        <v>1.18</v>
+        <v>1.86</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3277,12 +3277,12 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45767.625</v>
+        <v>45774.510416666657</v>
       </c>
       <c r="B39" t="s">
         <v>95</v>
@@ -3291,49 +3291,49 @@
         <v>96</v>
       </c>
       <c r="D39">
-        <v>0.33342327933733568</v>
+        <v>0.21172517713652139</v>
       </c>
       <c r="E39">
-        <v>0.4460740261515978</v>
+        <v>0.40352880004035141</v>
       </c>
       <c r="F39">
-        <v>0.22050269451106841</v>
+        <v>0.38474602282312809</v>
       </c>
       <c r="G39">
-        <v>0.77949730548893348</v>
+        <v>0.6152539771768728</v>
       </c>
       <c r="H39">
-        <v>0.55392597384840414</v>
+        <v>0.59647119995964948</v>
       </c>
       <c r="I39">
-        <v>0.66657672066266627</v>
+        <v>0.7882748228634795</v>
       </c>
       <c r="J39">
-        <v>2.0099999999999998</v>
+        <v>1.76</v>
       </c>
       <c r="K39">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="M39">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="N39">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="O39">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3342,12 +3342,12 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>12</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45767.625</v>
+        <v>45774.520833333343</v>
       </c>
       <c r="B40" t="s">
         <v>97</v>
@@ -3356,40 +3356,40 @@
         <v>98</v>
       </c>
       <c r="D40">
-        <v>0.38914296878921062</v>
+        <v>1.43938572160484E-3</v>
       </c>
       <c r="E40">
-        <v>0.19894472007961461</v>
+        <v>3.2506372531312867E-2</v>
       </c>
       <c r="F40">
-        <v>0.41191231113117532</v>
+        <v>0.9660542417470831</v>
       </c>
       <c r="G40">
-        <v>0.58808768886882523</v>
+        <v>3.3945758252917707E-2</v>
       </c>
       <c r="H40">
-        <v>0.80105527992038594</v>
+        <v>0.96749362746868794</v>
       </c>
       <c r="I40">
-        <v>0.61085703121078994</v>
+        <v>0.99856061427839593</v>
       </c>
       <c r="J40">
-        <v>1.39</v>
+        <v>4.75</v>
       </c>
       <c r="K40">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L40">
-        <v>6.5</v>
+        <v>1.54</v>
       </c>
       <c r="M40">
-        <v>1.1100000000000001</v>
+        <v>1.89</v>
       </c>
       <c r="N40">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="O40">
-        <v>2.14</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3398,21 +3398,21 @@
         <v>0</v>
       </c>
       <c r="R40">
-        <v>67</v>
+        <v>838</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="U40">
-        <v>180</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45767.645833333343</v>
+        <v>45774.583333333343</v>
       </c>
       <c r="B41" t="s">
         <v>99</v>
@@ -3421,40 +3421,40 @@
         <v>100</v>
       </c>
       <c r="D41">
-        <v>0.23010274918165571</v>
+        <v>0.1521584659771941</v>
       </c>
       <c r="E41">
-        <v>0.28459043687033431</v>
+        <v>0.18737733072496279</v>
       </c>
       <c r="F41">
-        <v>0.48530681394801067</v>
+        <v>0.6604642032978425</v>
       </c>
       <c r="G41">
-        <v>0.51469318605198999</v>
+        <v>0.33953579670215689</v>
       </c>
       <c r="H41">
-        <v>0.71540956312966641</v>
+        <v>0.81262266927503657</v>
       </c>
       <c r="I41">
-        <v>0.76989725081834504</v>
+        <v>0.84784153402280527</v>
       </c>
       <c r="J41">
-        <v>2.2400000000000002</v>
+        <v>1.55</v>
       </c>
       <c r="K41">
-        <v>3.35</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L41">
-        <v>2.72</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M41">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="N41">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="O41">
-        <v>1.41</v>
+        <v>1.88</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3472,12 +3472,12 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>211</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45767.677083333343</v>
+        <v>45774.604166666657</v>
       </c>
       <c r="B42" t="s">
         <v>101</v>
@@ -3486,55 +3486,55 @@
         <v>102</v>
       </c>
       <c r="D42">
-        <v>0.57665491493465826</v>
+        <v>0.95342122554048836</v>
       </c>
       <c r="E42">
-        <v>0.1278604998027871</v>
+        <v>3.3909332387036147E-2</v>
       </c>
       <c r="F42">
-        <v>0.295484585262556</v>
+        <v>1.266944207247688E-2</v>
       </c>
       <c r="G42">
-        <v>0.70451541473744539</v>
+        <v>0.98733055792752455</v>
       </c>
       <c r="H42">
-        <v>0.87213950019721431</v>
+        <v>0.96609066761296525</v>
       </c>
       <c r="I42">
-        <v>0.42334508506534307</v>
+        <v>4.6578774459513028E-2</v>
       </c>
       <c r="J42">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="K42">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L42">
-        <v>4.9000000000000004</v>
+        <v>3.65</v>
       </c>
       <c r="M42">
-        <v>1.1599999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="N42">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="O42">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>1064</v>
       </c>
       <c r="T42">
-        <v>341</v>
+        <v>950</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45767.6875</v>
+        <v>45774.604166666657</v>
       </c>
       <c r="B43" t="s">
         <v>103</v>
@@ -3551,49 +3551,49 @@
         <v>104</v>
       </c>
       <c r="D43">
-        <v>1.012940776184613E-2</v>
+        <v>0.71912274805857701</v>
       </c>
       <c r="E43">
-        <v>0.11093919779478439</v>
+        <v>0.16964978369119141</v>
       </c>
       <c r="F43">
-        <v>0.87893139444337198</v>
+        <v>0.1112274682502313</v>
       </c>
       <c r="G43">
-        <v>0.1210686055566305</v>
+        <v>0.88877253174976845</v>
       </c>
       <c r="H43">
-        <v>0.8890608022052181</v>
+        <v>0.83035021630880834</v>
       </c>
       <c r="I43">
-        <v>0.98987059223815632</v>
+        <v>0.28087725194142271</v>
       </c>
       <c r="J43">
-        <v>11</v>
+        <v>1.41</v>
       </c>
       <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
         <v>6.5</v>
       </c>
-      <c r="L43">
+      <c r="M43">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N43">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M43">
-        <v>2.92</v>
-      </c>
-      <c r="N43">
-        <v>1.0900000000000001</v>
-      </c>
       <c r="O43">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3602,12 +3602,12 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>1071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45767.71875</v>
+        <v>45774.625</v>
       </c>
       <c r="B44" t="s">
         <v>105</v>
@@ -3616,63 +3616,63 @@
         <v>106</v>
       </c>
       <c r="D44">
-        <v>1.038029633273172E-2</v>
+        <v>0.55807600643338939</v>
       </c>
       <c r="E44">
-        <v>0.1168394901006909</v>
+        <v>0.31568466621960872</v>
       </c>
       <c r="F44">
-        <v>0.87278021356657576</v>
+        <v>0.12623932734700269</v>
       </c>
       <c r="G44">
-        <v>0.1272197864334226</v>
+        <v>0.87376067265299806</v>
       </c>
       <c r="H44">
-        <v>0.8831605098993075</v>
+        <v>0.68431533378039211</v>
       </c>
       <c r="I44">
-        <v>0.9896197036672667</v>
+        <v>0.44192399356661138</v>
       </c>
       <c r="J44">
-        <v>3.25</v>
+        <v>1.56</v>
       </c>
       <c r="K44">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="M44">
-        <v>1.51</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N44">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="O44">
-        <v>1.29</v>
+        <v>1.86</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R44">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T44">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>1056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45767.71875</v>
+        <v>45774.625</v>
       </c>
       <c r="B45" t="s">
         <v>107</v>
@@ -3681,43 +3681,43 @@
         <v>108</v>
       </c>
       <c r="D45">
-        <v>0.65943024340183731</v>
+        <v>0.19903649409802129</v>
       </c>
       <c r="E45">
-        <v>0.2091663841505329</v>
+        <v>0.19006176072420919</v>
       </c>
       <c r="F45">
-        <v>0.1314033724476292</v>
+        <v>0.61090174517777018</v>
       </c>
       <c r="G45">
-        <v>0.86859662755237022</v>
+        <v>0.38909825482223048</v>
       </c>
       <c r="H45">
-        <v>0.79083361584946654</v>
+        <v>0.80993823927579145</v>
       </c>
       <c r="I45">
-        <v>0.34056975659816208</v>
+        <v>0.8009635059019794</v>
       </c>
       <c r="J45">
-        <v>2.0699999999999998</v>
+        <v>5.25</v>
       </c>
       <c r="K45">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L45">
-        <v>3.05</v>
+        <v>1.52</v>
       </c>
       <c r="M45">
-        <v>1.32</v>
+        <v>1.91</v>
       </c>
       <c r="N45">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="O45">
-        <v>1.48</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P45">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45767.71875</v>
+        <v>45774.645833333343</v>
       </c>
       <c r="B46" t="s">
         <v>109</v>
@@ -3746,55 +3746,55 @@
         <v>110</v>
       </c>
       <c r="D46">
-        <v>0.81650320604205495</v>
+        <v>0.48455932175247568</v>
       </c>
       <c r="E46">
-        <v>0.1249237983193764</v>
+        <v>0.20546509273870181</v>
       </c>
       <c r="F46">
-        <v>5.8572995638568097E-2</v>
+        <v>0.30997558550882309</v>
       </c>
       <c r="G46">
-        <v>0.94142700436143134</v>
+        <v>0.69002441449117746</v>
       </c>
       <c r="H46">
-        <v>0.87507620168062306</v>
+        <v>0.79453490726129883</v>
       </c>
       <c r="I46">
-        <v>0.18349679395794449</v>
+        <v>0.51544067824752493</v>
       </c>
       <c r="J46">
-        <v>1.28</v>
+        <v>1.97</v>
       </c>
       <c r="K46">
-        <v>4.95</v>
+        <v>3.3</v>
       </c>
       <c r="L46">
-        <v>7.75</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="N46">
-        <v>1.1399999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="O46">
-        <v>2.41</v>
+        <v>1.56</v>
       </c>
       <c r="P46">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S46">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45767.729166666657</v>
+        <v>45774.645833333343</v>
       </c>
       <c r="B47" t="s">
         <v>111</v>
@@ -3811,63 +3811,63 @@
         <v>112</v>
       </c>
       <c r="D47">
-        <v>0.63402125086725425</v>
+        <v>0.1118943732441483</v>
       </c>
       <c r="E47">
-        <v>0.26276379428428998</v>
+        <v>0.1183014017532331</v>
       </c>
       <c r="F47">
-        <v>0.1032149548484544</v>
+        <v>0.76980422500261714</v>
       </c>
       <c r="G47">
-        <v>0.89678504515154422</v>
+        <v>0.23019577499738139</v>
       </c>
       <c r="H47">
-        <v>0.73723620571570869</v>
+        <v>0.88169859824676544</v>
       </c>
       <c r="I47">
-        <v>0.36597874913274442</v>
+        <v>0.88810562675585025</v>
       </c>
       <c r="J47">
-        <v>1.32</v>
+        <v>2.04</v>
       </c>
       <c r="K47">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>6.25</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>1.1100000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="N47">
-        <v>1.1299999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="O47">
-        <v>2.31</v>
+        <v>1.49</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45767.75</v>
+        <v>45774.6875</v>
       </c>
       <c r="B48" t="s">
         <v>113</v>
@@ -3876,43 +3876,43 @@
         <v>114</v>
       </c>
       <c r="D48">
-        <v>0.66938269792458216</v>
+        <v>0.96952893274687146</v>
       </c>
       <c r="E48">
-        <v>0.1772605608434806</v>
+        <v>2.7839282529578999E-2</v>
       </c>
       <c r="F48">
-        <v>0.15335674123193641</v>
+        <v>2.6317847235486401E-3</v>
       </c>
       <c r="G48">
-        <v>0.84664325876806279</v>
+        <v>0.99736821527645048</v>
       </c>
       <c r="H48">
-        <v>0.82273943915651859</v>
+        <v>0.9721607174704201</v>
       </c>
       <c r="I48">
-        <v>0.33061730207541701</v>
+        <v>3.0471067253127641E-2</v>
       </c>
       <c r="J48">
-        <v>3.3</v>
+        <v>1.18</v>
       </c>
       <c r="K48">
-        <v>3.15</v>
+        <v>6.5</v>
       </c>
       <c r="L48">
-        <v>2.04</v>
+        <v>9.25</v>
       </c>
       <c r="M48">
-        <v>1.49</v>
+        <v>1.06</v>
       </c>
       <c r="N48">
-        <v>1.3</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O48">
-        <v>1.28</v>
+        <v>2.82</v>
       </c>
       <c r="P48">
-        <v>228</v>
+        <v>969</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>512</v>
+        <v>1285</v>
       </c>
       <c r="T48">
-        <v>255</v>
+        <v>869</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45767.770833333343</v>
+        <v>45774.697916666657</v>
       </c>
       <c r="B49" t="s">
         <v>115</v>
@@ -3941,41 +3941,41 @@
         <v>116</v>
       </c>
       <c r="D49">
-        <v>8.1501640206165279E-2</v>
+        <v>4.508930672978217E-3</v>
       </c>
       <c r="E49">
-        <v>0.11643688635650259</v>
+        <v>0.1177870939123274</v>
       </c>
       <c r="F49">
-        <v>0.80206147343733303</v>
+        <v>0.87770397541469614</v>
       </c>
       <c r="G49">
-        <v>0.19793852656266789</v>
+        <v>0.1222960245853056</v>
       </c>
       <c r="H49">
-        <v>0.88356311364349827</v>
+        <v>0.88221290608767433</v>
       </c>
       <c r="I49">
-        <v>0.91849835979383565</v>
+        <v>0.99549106932702358</v>
       </c>
       <c r="J49">
-        <v>1.84</v>
+        <v>3.2</v>
       </c>
       <c r="K49">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L49">
-        <v>4.1500000000000004</v>
+        <v>2.02</v>
       </c>
       <c r="M49">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="N49">
+        <v>1.24</v>
+      </c>
+      <c r="O49">
         <v>1.31</v>
       </c>
-      <c r="O49">
-        <v>1.6</v>
-      </c>
       <c r="P49">
         <v>0</v>
       </c>
@@ -3983,21 +3983,21 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>254</v>
+        <v>536</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49">
-        <v>554</v>
+        <v>451</v>
       </c>
       <c r="U49">
-        <v>699</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45767.8125</v>
+        <v>45774.71875</v>
       </c>
       <c r="B50" t="s">
         <v>117</v>
@@ -4006,40 +4006,40 @@
         <v>118</v>
       </c>
       <c r="D50">
-        <v>1.427963054807793E-3</v>
+        <v>0.28378194699666992</v>
       </c>
       <c r="E50">
-        <v>2.0918349411514291E-2</v>
+        <v>0.23908941697368849</v>
       </c>
       <c r="F50">
-        <v>0.97765368753367887</v>
+        <v>0.47712863602964217</v>
       </c>
       <c r="G50">
-        <v>2.2346312466322089E-2</v>
+        <v>0.52287136397035838</v>
       </c>
       <c r="H50">
-        <v>0.97908165058848662</v>
+        <v>0.76091058302631209</v>
       </c>
       <c r="I50">
-        <v>0.99857203694519314</v>
+        <v>0.71621805300333063</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="K50">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="L50">
-        <v>1.54</v>
+        <v>2.02</v>
       </c>
       <c r="M50">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="N50">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="O50">
-        <v>1.1499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4048,21 +4048,21 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
-        <v>1035</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>1229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45767.864583333343</v>
+        <v>45774.71875</v>
       </c>
       <c r="B51" t="s">
         <v>119</v>
@@ -4071,40 +4071,40 @@
         <v>120</v>
       </c>
       <c r="D51">
-        <v>1.5319861254945539E-3</v>
+        <v>0.1273393184893073</v>
       </c>
       <c r="E51">
-        <v>5.1296572684751032E-2</v>
+        <v>0.20728490281557499</v>
       </c>
       <c r="F51">
-        <v>0.94717144118975594</v>
+        <v>0.66537577869511666</v>
       </c>
       <c r="G51">
-        <v>5.2828558810245577E-2</v>
+        <v>0.33462422130488229</v>
       </c>
       <c r="H51">
-        <v>0.94870342731525048</v>
+        <v>0.7927150971844239</v>
       </c>
       <c r="I51">
-        <v>0.99846801387450701</v>
+        <v>0.87266068151069165</v>
       </c>
       <c r="J51">
-        <v>2.21</v>
+        <v>4</v>
       </c>
       <c r="K51">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L51">
-        <v>2.72</v>
+        <v>1.7</v>
       </c>
       <c r="M51">
-        <v>1.37</v>
+        <v>1.71</v>
       </c>
       <c r="N51">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="O51">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -4113,21 +4113,21 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>481</v>
+        <v>157</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
       <c r="T51">
-        <v>853</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>1001</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45767.864583333343</v>
+        <v>45774.71875</v>
       </c>
       <c r="B52" t="s">
         <v>121</v>
@@ -4136,63 +4136,63 @@
         <v>122</v>
       </c>
       <c r="D52">
-        <v>2.3316998567714251E-3</v>
+        <v>0.94255852785490479</v>
       </c>
       <c r="E52">
-        <v>0.12606467981460051</v>
+        <v>4.8541004735459387E-2</v>
       </c>
       <c r="F52">
-        <v>0.8716036203286277</v>
+        <v>8.900467409634856E-3</v>
       </c>
       <c r="G52">
-        <v>0.12839637967137191</v>
+        <v>0.99109953259036421</v>
       </c>
       <c r="H52">
-        <v>0.8739353201853991</v>
+        <v>0.9514589952645397</v>
       </c>
       <c r="I52">
-        <v>0.99766830014322827</v>
+        <v>5.7441472145094243E-2</v>
       </c>
       <c r="J52">
-        <v>4.5999999999999996</v>
+        <v>1.51</v>
       </c>
       <c r="K52">
-        <v>4.4000000000000004</v>
+        <v>4.05</v>
       </c>
       <c r="L52">
-        <v>1.51</v>
+        <v>5</v>
       </c>
       <c r="M52">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N52">
+        <v>1.2</v>
+      </c>
+      <c r="O52">
         <v>1.93</v>
       </c>
-      <c r="N52">
-        <v>1.18</v>
-      </c>
-      <c r="O52">
-        <v>1.17</v>
-      </c>
       <c r="P52">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1157</v>
       </c>
       <c r="T52">
-        <v>210</v>
+        <v>844</v>
       </c>
       <c r="U52">
-        <v>1201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45767.875</v>
+        <v>45774.729166666657</v>
       </c>
       <c r="B53" t="s">
         <v>123</v>
@@ -4201,63 +4201,63 @@
         <v>124</v>
       </c>
       <c r="D53">
-        <v>0.90674707709805347</v>
+        <v>0.2996798165721512</v>
       </c>
       <c r="E53">
-        <v>8.3869048249055084E-2</v>
+        <v>0.19733859428574749</v>
       </c>
       <c r="F53">
-        <v>9.3838746528931601E-3</v>
+        <v>0.50298158914210234</v>
       </c>
       <c r="G53">
-        <v>0.99061612534710852</v>
+        <v>0.49701841085789872</v>
       </c>
       <c r="H53">
-        <v>0.91613095175094661</v>
+        <v>0.8026614057142536</v>
       </c>
       <c r="I53">
-        <v>9.325292290194824E-2</v>
+        <v>0.70032018342784985</v>
       </c>
       <c r="J53">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="K53">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L53">
-        <v>4.95</v>
+        <v>3.8</v>
       </c>
       <c r="M53">
-        <v>1.1499999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="N53">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="O53">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="P53">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="S53">
-        <v>1153</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45768.520833333343</v>
+        <v>45774.75</v>
       </c>
       <c r="B54" t="s">
         <v>125</v>
@@ -4266,43 +4266,34 @@
         <v>126</v>
       </c>
       <c r="D54">
-        <v>0.5131465699798361</v>
+        <v>0.98335621721554756</v>
       </c>
       <c r="E54">
-        <v>0.25986800969548279</v>
+        <v>1.658806658978651E-2</v>
       </c>
       <c r="F54">
-        <v>0.22698542032468069</v>
+        <v>5.5716194666438757E-5</v>
       </c>
       <c r="G54">
-        <v>0.77301457967531895</v>
+        <v>0.99994428380533407</v>
       </c>
       <c r="H54">
-        <v>0.74013199030451682</v>
+        <v>0.98341193341021405</v>
       </c>
       <c r="I54">
-        <v>0.48685343002016351</v>
+        <v>1.664378278445295E-2</v>
       </c>
       <c r="J54">
-        <v>2.13</v>
+        <v>1.05</v>
       </c>
       <c r="K54">
-        <v>2.93</v>
+        <v>12.5</v>
       </c>
       <c r="L54">
-        <v>3.35</v>
-      </c>
-      <c r="M54">
-        <v>1.27</v>
-      </c>
-      <c r="N54">
-        <v>1.34</v>
-      </c>
-      <c r="O54">
-        <v>1.46</v>
+        <v>28</v>
       </c>
       <c r="P54">
-        <v>55</v>
+        <v>885</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -4322,7 +4313,7 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45768.625</v>
+        <v>45774.75</v>
       </c>
       <c r="B55" t="s">
         <v>127</v>
@@ -4331,55 +4322,55 @@
         <v>128</v>
       </c>
       <c r="D55">
-        <v>0.37382812120729209</v>
+        <v>0.69549507061302107</v>
       </c>
       <c r="E55">
-        <v>0.33488722217552103</v>
+        <v>0.14030668394669579</v>
       </c>
       <c r="F55">
-        <v>0.2912846566171875</v>
+        <v>0.16419824544028361</v>
       </c>
       <c r="G55">
-        <v>0.70871534338281306</v>
+        <v>0.83580175455971684</v>
       </c>
       <c r="H55">
-        <v>0.66511277782447964</v>
+        <v>0.85969331605330468</v>
       </c>
       <c r="I55">
-        <v>0.62617187879270853</v>
+        <v>0.30450492938697937</v>
       </c>
       <c r="J55">
-        <v>3.05</v>
+        <v>1.46</v>
       </c>
       <c r="K55">
-        <v>3.1</v>
+        <v>4.55</v>
       </c>
       <c r="L55">
-        <v>2.19</v>
+        <v>6.25</v>
       </c>
       <c r="M55">
-        <v>1.43</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N55">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="O55">
-        <v>1.32</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="P55">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q55">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -4387,7 +4378,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45768.75</v>
+        <v>45774.75</v>
       </c>
       <c r="B56" t="s">
         <v>129</v>
@@ -4396,49 +4387,49 @@
         <v>130</v>
       </c>
       <c r="D56">
-        <v>0.2127488327539423</v>
+        <v>0.69419333614505174</v>
       </c>
       <c r="E56">
-        <v>0.27017781123439849</v>
+        <v>0.1631370666438034</v>
       </c>
       <c r="F56">
-        <v>0.51707335601165938</v>
+        <v>0.1426695972111465</v>
       </c>
       <c r="G56">
-        <v>0.48292664398834079</v>
+        <v>0.85733040278885508</v>
       </c>
       <c r="H56">
-        <v>0.72982218876560168</v>
+        <v>0.83686293335619821</v>
       </c>
       <c r="I56">
-        <v>0.78725116724605781</v>
+        <v>0.30580666385494992</v>
       </c>
       <c r="J56">
-        <v>3.4</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K56">
-        <v>3.15</v>
+        <v>6.75</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>1.51</v>
+        <v>1.03</v>
       </c>
       <c r="N56">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="O56">
-        <v>1.27</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R56">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -4452,7 +4443,7 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45768.833333333343</v>
+        <v>45774.854166666657</v>
       </c>
       <c r="B57" t="s">
         <v>131</v>
@@ -4461,40 +4452,40 @@
         <v>132</v>
       </c>
       <c r="D57">
-        <v>8.5014856608590247E-2</v>
+        <v>2.5349503978832418E-4</v>
       </c>
       <c r="E57">
-        <v>0.1957654670426103</v>
+        <v>1.2291378153682871E-2</v>
       </c>
       <c r="F57">
-        <v>0.71921967634879957</v>
+        <v>0.98745512680652814</v>
       </c>
       <c r="G57">
-        <v>0.28078032365120048</v>
+        <v>1.2544873193471201E-2</v>
       </c>
       <c r="H57">
-        <v>0.80423453295738978</v>
+        <v>0.98770862184631647</v>
       </c>
       <c r="I57">
-        <v>0.91498514339140991</v>
+        <v>0.999746504960211</v>
       </c>
       <c r="J57">
-        <v>2.1800000000000002</v>
+        <v>13</v>
       </c>
       <c r="K57">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="L57">
-        <v>2.64</v>
+        <v>1.19</v>
       </c>
       <c r="M57">
-        <v>1.39</v>
+        <v>2.83</v>
       </c>
       <c r="N57">
-        <v>1.24</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O57">
-        <v>1.43</v>
+        <v>1.05</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -4503,21 +4494,21 @@
         <v>0</v>
       </c>
       <c r="R57">
-        <v>297</v>
+        <v>1106</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>1123</v>
       </c>
       <c r="U57">
-        <v>717</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45768.864583333343</v>
+        <v>45774.864583333343</v>
       </c>
       <c r="B58" t="s">
         <v>133</v>
@@ -4526,46 +4517,46 @@
         <v>134</v>
       </c>
       <c r="D58">
-        <v>0.17698999478933011</v>
+        <v>0.58645657623881897</v>
       </c>
       <c r="E58">
-        <v>0.25514149679994169</v>
+        <v>0.23435760047022061</v>
       </c>
       <c r="F58">
-        <v>0.56786850841072911</v>
+        <v>0.1791858232909595</v>
       </c>
       <c r="G58">
-        <v>0.43213149158927178</v>
+        <v>0.82081417670903956</v>
       </c>
       <c r="H58">
-        <v>0.7448585032000592</v>
+        <v>0.76564239952977853</v>
       </c>
       <c r="I58">
-        <v>0.8230100052106708</v>
+        <v>0.41354342376118008</v>
       </c>
       <c r="J58">
-        <v>4.75</v>
+        <v>1.44</v>
       </c>
       <c r="K58">
-        <v>3.65</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="L58">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="M58">
-        <v>1.81</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="N58">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="O58">
-        <v>1.1599999999999999</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -4582,7 +4573,7 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45768.875</v>
+        <v>45774.864583333343</v>
       </c>
       <c r="B59" t="s">
         <v>135</v>
@@ -4591,58 +4582,58 @@
         <v>136</v>
       </c>
       <c r="D59">
-        <v>2.63258350393543E-2</v>
+        <v>0.95887836542385085</v>
       </c>
       <c r="E59">
-        <v>5.3157144213755343E-2</v>
+        <v>3.7339985648408208E-2</v>
       </c>
       <c r="F59">
-        <v>0.92051702074688957</v>
+        <v>3.781648927741253E-3</v>
       </c>
       <c r="G59">
-        <v>7.948297925310964E-2</v>
+        <v>0.99621835107225909</v>
       </c>
       <c r="H59">
-        <v>0.94684285578624383</v>
+        <v>0.9626600143515921</v>
       </c>
       <c r="I59">
-        <v>0.97367416496064496</v>
+        <v>4.1121634576149459E-2</v>
       </c>
       <c r="J59">
-        <v>2.85</v>
+        <v>1.35</v>
       </c>
       <c r="K59">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="L59">
-        <v>2.16</v>
+        <v>7.25</v>
       </c>
       <c r="M59">
-        <v>1.44</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N59">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="O59">
-        <v>1.35</v>
+        <v>2.23</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>1251</v>
       </c>
       <c r="T59">
-        <v>845</v>
+        <v>907</v>
       </c>
       <c r="U59">
-        <v>951</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ML_PL_new/actual_tx.xlsx
+++ b/ML_PL_new/actual_tx.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -437,7 +437,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -495,7 +495,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -800,13 +800,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C62" sqref="A37:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="4" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2500,7 +2501,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45780.75</v>
       </c>

--- a/ML_PL_new/actual_tx.xlsx
+++ b/ML_PL_new/actual_tx.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20775" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20775" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -84,352 +84,334 @@
     <t>Double_X2_bet</t>
   </si>
   <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Nott'm Forest</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>M'gladbach</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
     <t>Udinese</t>
   </si>
   <si>
-    <t>Bologna</t>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
   </si>
   <si>
     <t>Verona</t>
   </si>
   <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Nott'm Forest</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Bochum</t>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>St Pauli</t>
   </si>
   <si>
     <t>Torino</t>
   </si>
   <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
     <t>Venezia</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>St Pauli</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>M'gladbach</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Farense</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Nacional</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>NAC Breda</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Monza</t>
+    <t>Fiorentina</t>
   </si>
   <si>
     <t>Atalanta</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
     <t>Roma</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
   </si>
 </sst>
 </file>
@@ -437,7 +419,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -495,7 +477,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -798,16 +780,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U62"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C62" sqref="A37:C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="4" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -878,7 +859,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45775.770833333343</v>
+        <v>45782.833333333343</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -887,40 +868,40 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>8.3818438728806843E-2</v>
+        <v>0.10783055145354629</v>
       </c>
       <c r="E2">
-        <v>9.9723256358222628E-2</v>
+        <v>0.22446210329827371</v>
       </c>
       <c r="F2">
-        <v>0.81645830491297067</v>
+        <v>0.66770734524818043</v>
       </c>
       <c r="G2">
-        <v>0.1835416950870295</v>
+        <v>0.33229265475182002</v>
       </c>
       <c r="H2">
-        <v>0.90027674364177757</v>
+        <v>0.77553789670172668</v>
       </c>
       <c r="I2">
-        <v>0.91618156127119332</v>
+        <v>0.89216944854645419</v>
       </c>
       <c r="J2">
-        <v>4.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L2">
-        <v>1.74</v>
+        <v>3.25</v>
       </c>
       <c r="M2">
-        <v>1.76</v>
+        <v>1.29</v>
       </c>
       <c r="N2">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O2">
-        <v>1.17</v>
+        <v>1.54</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -929,21 +910,21 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>467</v>
+        <v>229</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>517</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45775.864583333343</v>
+        <v>45782.864583333343</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -952,63 +933,63 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0.36058413746744111</v>
+        <v>1.268661795302293E-2</v>
       </c>
       <c r="E3">
-        <v>0.45363553940418733</v>
+        <v>6.6889451761717081E-2</v>
       </c>
       <c r="F3">
-        <v>0.1857803231283717</v>
+        <v>0.92042393028525971</v>
       </c>
       <c r="G3">
-        <v>0.81421967687162844</v>
+        <v>7.9576069714740016E-2</v>
       </c>
       <c r="H3">
-        <v>0.54636446059581278</v>
+        <v>0.93311054823828266</v>
       </c>
       <c r="I3">
-        <v>0.639415862532559</v>
+        <v>0.98731338204697683</v>
       </c>
       <c r="J3">
-        <v>2.56</v>
+        <v>4.7</v>
       </c>
       <c r="K3">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="L3">
-        <v>2.95</v>
+        <v>1.75</v>
       </c>
       <c r="M3">
-        <v>1.31</v>
+        <v>1.82</v>
       </c>
       <c r="N3">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="O3">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="S3">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45778.8125</v>
+        <v>45782.875</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -1017,40 +998,40 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.44118176694213351</v>
+        <v>0.246074494921869</v>
       </c>
       <c r="E4">
-        <v>0.25251322973765739</v>
+        <v>0.25832173333632852</v>
       </c>
       <c r="F4">
-        <v>0.30630500332021071</v>
+        <v>0.49560377174180431</v>
       </c>
       <c r="G4">
-        <v>0.69369499667979095</v>
+        <v>0.50439622825819752</v>
       </c>
       <c r="H4">
-        <v>0.74748677026234422</v>
+        <v>0.74167826666367331</v>
       </c>
       <c r="I4">
-        <v>0.55881823305786815</v>
+        <v>0.75392550507813283</v>
       </c>
       <c r="J4">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="K4">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M4">
+        <v>1.2</v>
+      </c>
+      <c r="N4">
         <v>1.28</v>
       </c>
-      <c r="N4">
-        <v>1.26</v>
-      </c>
       <c r="O4">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1059,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1068,12 +1049,12 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45779.84375</v>
+        <v>45786.833333333343</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1082,63 +1063,63 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>0.8490549225099453</v>
+        <v>0.2029251073011317</v>
       </c>
       <c r="E5">
-        <v>0.1055740806592749</v>
+        <v>0.48996564646324869</v>
       </c>
       <c r="F5">
-        <v>4.5370996830778769E-2</v>
+        <v>0.30710924623561903</v>
       </c>
       <c r="G5">
-        <v>0.95462900316922017</v>
+        <v>0.69289075376438036</v>
       </c>
       <c r="H5">
-        <v>0.89442591934072402</v>
+        <v>0.51003435353675075</v>
       </c>
       <c r="I5">
-        <v>0.1509450774900537</v>
+        <v>0.79707489269886778</v>
       </c>
       <c r="J5">
-        <v>1.26</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="K5">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>2.85</v>
       </c>
       <c r="M5">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="N5">
-        <v>1.1399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="O5">
-        <v>2.54</v>
+        <v>1.44</v>
       </c>
       <c r="P5">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45779.854166666657</v>
+        <v>45786.833333333343</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -1147,49 +1128,49 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.27014378892406449</v>
+        <v>0.24393816501112611</v>
       </c>
       <c r="E6">
-        <v>0.28547223023767021</v>
+        <v>0.40039069403034172</v>
       </c>
       <c r="F6">
-        <v>0.44438398083826441</v>
+        <v>0.35567114095853392</v>
       </c>
       <c r="G6">
-        <v>0.55561601916173475</v>
+        <v>0.64432885904146786</v>
       </c>
       <c r="H6">
-        <v>0.7145277697623289</v>
+        <v>0.59960930596966</v>
       </c>
       <c r="I6">
-        <v>0.72985621107593457</v>
+        <v>0.75606183498887569</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="K6">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="L6">
-        <v>3.05</v>
+        <v>2.89</v>
       </c>
       <c r="M6">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="N6">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="O6">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R6">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1203,7 +1184,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45779.864583333343</v>
+        <v>45786.854166666657</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -1212,49 +1193,49 @@
         <v>32</v>
       </c>
       <c r="D7">
-        <v>0.47645144385701022</v>
+        <v>0.15635160243499871</v>
       </c>
       <c r="E7">
-        <v>0.2350518505217975</v>
+        <v>0.48393577027506463</v>
       </c>
       <c r="F7">
-        <v>0.28849670562119178</v>
+        <v>0.35971262728993769</v>
       </c>
       <c r="G7">
-        <v>0.71150329437880777</v>
+        <v>0.64028737271006331</v>
       </c>
       <c r="H7">
-        <v>0.764948149478202</v>
+        <v>0.51606422972493637</v>
       </c>
       <c r="I7">
-        <v>0.52354855614298934</v>
+        <v>0.84364839756500232</v>
       </c>
       <c r="J7">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="K7">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="L7">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="M7">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="N7">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="O7">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="R7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1263,119 +1244,119 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45779.864583333343</v>
+        <v>45786.864583333343</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
       <c r="D8">
-        <v>0.89803765261648871</v>
+        <v>0.24847583407529611</v>
       </c>
       <c r="E8">
-        <v>8.257854751543163E-2</v>
+        <v>0.30039036341882602</v>
       </c>
       <c r="F8">
-        <v>1.9383799868080961E-2</v>
+        <v>0.45113380250587731</v>
       </c>
       <c r="G8">
-        <v>0.9806162001319203</v>
+        <v>0.54886619749412213</v>
       </c>
       <c r="H8">
-        <v>0.91742145248456963</v>
+        <v>0.69960963658117348</v>
       </c>
       <c r="I8">
-        <v>0.10196234738351261</v>
+        <v>0.75152416592470339</v>
       </c>
       <c r="J8">
-        <v>1.36</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="K8">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="L8">
-        <v>6.25</v>
+        <v>3.05</v>
       </c>
       <c r="M8">
-        <v>1.1100000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="N8">
-        <v>1.1599999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="O8">
-        <v>2.21</v>
+        <v>1.49</v>
       </c>
       <c r="P8">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="S8">
-        <v>1035</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45779.875</v>
+        <v>45787.583333333343</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
       <c r="D9">
-        <v>1.6262872527806671E-2</v>
+        <v>9.7383888989457476E-2</v>
       </c>
       <c r="E9">
-        <v>5.9993484743289548E-2</v>
+        <v>0.16910445773309421</v>
       </c>
       <c r="F9">
-        <v>0.92374364272890241</v>
+        <v>0.73351165327744727</v>
       </c>
       <c r="G9">
-        <v>7.6256357271096226E-2</v>
+        <v>0.26648834672255173</v>
       </c>
       <c r="H9">
-        <v>0.94000651525670909</v>
+        <v>0.83089554226690476</v>
       </c>
       <c r="I9">
-        <v>0.983737127472192</v>
+        <v>0.90261611101054151</v>
       </c>
       <c r="J9">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="K9">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="M9">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="N9">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O9">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1384,75 +1365,75 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>375</v>
+        <v>233</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>814</v>
+        <v>294</v>
       </c>
       <c r="U9">
-        <v>922</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45780.520833333343</v>
+        <v>45787.625</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
       <c r="D10">
-        <v>0.61772585669740132</v>
+        <v>0.63140315686089399</v>
       </c>
       <c r="E10">
-        <v>0.35412519537272819</v>
+        <v>0.23936495228750501</v>
       </c>
       <c r="F10">
-        <v>2.8148947929869071E-2</v>
+        <v>0.1292318908515995</v>
       </c>
       <c r="G10">
-        <v>0.97185105207012956</v>
+        <v>0.87076810914839897</v>
       </c>
       <c r="H10">
-        <v>0.64587480462727043</v>
+        <v>0.76063504771249346</v>
       </c>
       <c r="I10">
-        <v>0.38227414330259718</v>
+        <v>0.36859684313910451</v>
       </c>
       <c r="J10">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="K10">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L10">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="M10">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N10">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="O10">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q10">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>987</v>
+        <v>135</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1463,185 +1444,185 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45780.583333333343</v>
+        <v>45787.625</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
       <c r="D11">
-        <v>0.14635096653133359</v>
+        <v>0.60258400395847078</v>
       </c>
       <c r="E11">
-        <v>5.6738796453414439E-2</v>
+        <v>0.25228054243508541</v>
       </c>
       <c r="F11">
-        <v>0.79691023701525276</v>
+        <v>0.14513545360644531</v>
       </c>
       <c r="G11">
-        <v>0.20308976298474801</v>
+        <v>0.85486454639355625</v>
       </c>
       <c r="H11">
-        <v>0.94326120354658638</v>
+        <v>0.74771945756491609</v>
       </c>
       <c r="I11">
-        <v>0.85364903346866716</v>
+        <v>0.39741599604153072</v>
       </c>
       <c r="J11">
-        <v>3.75</v>
+        <v>1.71</v>
       </c>
       <c r="K11">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>1.89</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="M11">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="N11">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O11">
-        <v>1.23</v>
+        <v>1.7</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="T11">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45780.625</v>
+        <v>45787.625</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
       <c r="D12">
-        <v>2.4338836403246279E-2</v>
+        <v>3.3683552155420113E-2</v>
       </c>
       <c r="E12">
-        <v>0.1231677545742088</v>
+        <v>0.28722499821045328</v>
       </c>
       <c r="F12">
-        <v>0.85249340902254489</v>
+        <v>0.67909144963412593</v>
       </c>
       <c r="G12">
-        <v>0.14750659097745511</v>
+        <v>0.3209085503658734</v>
       </c>
       <c r="H12">
-        <v>0.87683224542579119</v>
+        <v>0.712775001789546</v>
       </c>
       <c r="I12">
-        <v>0.9756611635967537</v>
+        <v>0.96631644784457915</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>6.75</v>
       </c>
       <c r="L12">
-        <v>2.06</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M12">
-        <v>1.48</v>
+        <v>2.95</v>
       </c>
       <c r="N12">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="O12">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="R12">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>974</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45780.625</v>
+        <v>45787.625</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>0.37587135984455161</v>
+        <v>7.2136907258400454E-2</v>
       </c>
       <c r="E13">
-        <v>0.39369144505693549</v>
+        <v>0.41363209943618851</v>
       </c>
       <c r="F13">
-        <v>0.2304371950985134</v>
+        <v>0.51423099330541044</v>
       </c>
       <c r="G13">
-        <v>0.7695628049014871</v>
+        <v>0.48576900669458889</v>
       </c>
       <c r="H13">
-        <v>0.60630855494306501</v>
+        <v>0.58636790056381094</v>
       </c>
       <c r="I13">
-        <v>0.62412864015544889</v>
+        <v>0.92786309274159895</v>
       </c>
       <c r="J13">
-        <v>1.99</v>
+        <v>4.5</v>
       </c>
       <c r="K13">
-        <v>3.15</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L13">
-        <v>3.45</v>
+        <v>1.55</v>
       </c>
       <c r="M13">
-        <v>1.26</v>
+        <v>1.87</v>
       </c>
       <c r="N13">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="O13">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1653,119 +1634,119 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45780.625</v>
+        <v>45787.645833333343</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>0.2313253421071004</v>
+        <v>0.1766520600710472</v>
       </c>
       <c r="E14">
-        <v>0.43870411078790861</v>
+        <v>0.49408657596645428</v>
       </c>
       <c r="F14">
-        <v>0.32997054710498802</v>
+        <v>0.32926136396249678</v>
       </c>
       <c r="G14">
-        <v>0.67002945289500904</v>
+        <v>0.6707386360375015</v>
       </c>
       <c r="H14">
-        <v>0.56129588921208839</v>
+        <v>0.505913424033544</v>
       </c>
       <c r="I14">
-        <v>0.76867465789289668</v>
+        <v>0.82334793992895106</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="M14">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="N14">
         <v>1.25</v>
       </c>
       <c r="O14">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45780.625</v>
+        <v>45787.645833333343</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>0.2173306486990228</v>
+        <v>0.46988270664810022</v>
       </c>
       <c r="E15">
-        <v>0.21717019366944981</v>
+        <v>0.28230509853406749</v>
       </c>
       <c r="F15">
-        <v>0.56549915763152847</v>
+        <v>0.24781219481783101</v>
       </c>
       <c r="G15">
-        <v>0.43450084236847258</v>
+        <v>0.75218780518216777</v>
       </c>
       <c r="H15">
-        <v>0.78282980633055121</v>
+        <v>0.71769490146593129</v>
       </c>
       <c r="I15">
-        <v>0.78266935130097826</v>
+        <v>0.5301172933518985</v>
       </c>
       <c r="J15">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="K15">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L15">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>1.1399999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="N15">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="O15">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1774,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1783,54 +1764,54 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45780.645833333343</v>
+        <v>45787.645833333343</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>1.0025369130728309E-3</v>
+        <v>6.608149321122467E-3</v>
       </c>
       <c r="E16">
-        <v>0.13364206628954151</v>
+        <v>6.8975153203284761E-2</v>
       </c>
       <c r="F16">
-        <v>0.86535539679738605</v>
+        <v>0.9244166974755943</v>
       </c>
       <c r="G16">
-        <v>0.13464460320261429</v>
+        <v>7.5583302524407231E-2</v>
       </c>
       <c r="H16">
-        <v>0.86635793371045888</v>
+        <v>0.93102484679671671</v>
       </c>
       <c r="I16">
-        <v>0.99899746308692761</v>
+        <v>0.99339185067887903</v>
       </c>
       <c r="J16">
-        <v>4.3499999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="K16">
-        <v>4.55</v>
+        <v>3.7</v>
       </c>
       <c r="L16">
-        <v>1.51</v>
+        <v>1.92</v>
       </c>
       <c r="M16">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="N16">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="O16">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1839,143 +1820,143 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>98</v>
+        <v>742</v>
       </c>
       <c r="U16">
-        <v>1203</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45780.645833333343</v>
+        <v>45787.645833333343</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>0.13834805392871211</v>
+        <v>0.31362850955596833</v>
       </c>
       <c r="E17">
-        <v>0.15672801028173161</v>
+        <v>0.27756290811096601</v>
       </c>
       <c r="F17">
-        <v>0.70492393578955803</v>
+        <v>0.40880858233306572</v>
       </c>
       <c r="G17">
-        <v>0.29507606421044369</v>
+        <v>0.59119141766693439</v>
       </c>
       <c r="H17">
-        <v>0.84327198971827011</v>
+        <v>0.72243709188903404</v>
       </c>
       <c r="I17">
-        <v>0.8616519460712897</v>
+        <v>0.68637149044403167</v>
       </c>
       <c r="J17">
-        <v>2.76</v>
+        <v>2.12</v>
       </c>
       <c r="K17">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L17">
-        <v>2.17</v>
+        <v>2.72</v>
       </c>
       <c r="M17">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="N17">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="O17">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>509</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45780.645833333343</v>
+        <v>45787.677083333343</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>0.40118202231494249</v>
+        <v>0.8390323157791959</v>
       </c>
       <c r="E18">
-        <v>0.21867937222232231</v>
+        <v>0.14251318918963959</v>
       </c>
       <c r="F18">
-        <v>0.38013860546273592</v>
+        <v>1.8454495031165061E-2</v>
       </c>
       <c r="G18">
-        <v>0.61986139453726485</v>
+        <v>0.98154550496883552</v>
       </c>
       <c r="H18">
-        <v>0.78132062777767841</v>
+        <v>0.85748681081036093</v>
       </c>
       <c r="I18">
-        <v>0.59881797768505818</v>
+        <v>0.16096768422080471</v>
       </c>
       <c r="J18">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="K18">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="M18">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="N18">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="O18">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1059</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1983,179 +1964,179 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45780.645833333343</v>
+        <v>45787.6875</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>0.28035551660449171</v>
+        <v>0.16235882585359621</v>
       </c>
       <c r="E19">
-        <v>0.1976331929058483</v>
+        <v>0.61567579801728023</v>
       </c>
       <c r="F19">
-        <v>0.52201129048965844</v>
+        <v>0.2219653761291252</v>
       </c>
       <c r="G19">
-        <v>0.47798870951034</v>
+        <v>0.77803462387087641</v>
       </c>
       <c r="H19">
-        <v>0.80236680709415009</v>
+        <v>0.38432420198272138</v>
       </c>
       <c r="I19">
-        <v>0.71964448339550668</v>
+        <v>0.83764117414640538</v>
       </c>
       <c r="J19">
-        <v>2.39</v>
+        <v>3.2</v>
       </c>
       <c r="K19">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>2.8</v>
+        <v>1.99</v>
       </c>
       <c r="M19">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="N19">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="O19">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="R19">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="T19">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45780.645833333343</v>
+        <v>45787.729166666657</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>0.2191079309498648</v>
+        <v>2.2210018726722781E-2</v>
       </c>
       <c r="E20">
-        <v>0.112121917209385</v>
+        <v>0.1031410038663137</v>
       </c>
       <c r="F20">
-        <v>0.66877015184075028</v>
+        <v>0.87464897740696212</v>
       </c>
       <c r="G20">
-        <v>0.33122984815924977</v>
+        <v>0.12535102259303649</v>
       </c>
       <c r="H20">
-        <v>0.88787808279061509</v>
+        <v>0.89685899613368492</v>
       </c>
       <c r="I20">
-        <v>0.78089206905013531</v>
+        <v>0.97778998127327577</v>
       </c>
       <c r="J20">
-        <v>4.6500000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="K20">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="L20">
-        <v>1.72</v>
+        <v>2.63</v>
       </c>
       <c r="M20">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="N20">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="O20">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>173</v>
+        <v>433</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>502</v>
+        <v>579</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>925</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45780.645833333343</v>
+        <v>45787.75</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21">
-        <v>3.688294536526093E-3</v>
+        <v>0.44847329827104288</v>
       </c>
       <c r="E21">
-        <v>3.7149277263406437E-2</v>
+        <v>0.28244272861162079</v>
       </c>
       <c r="F21">
-        <v>0.95916242820006903</v>
+        <v>0.26908397311733601</v>
       </c>
       <c r="G21">
-        <v>4.0837571799932533E-2</v>
+        <v>0.73091602688266366</v>
       </c>
       <c r="H21">
-        <v>0.96285072273659511</v>
+        <v>0.71755727138837888</v>
       </c>
       <c r="I21">
-        <v>0.99631170546347547</v>
+        <v>0.55152670172895679</v>
       </c>
       <c r="J21">
-        <v>2.2000000000000002</v>
+        <v>2.14</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L21">
-        <v>2.69</v>
+        <v>2.97</v>
       </c>
       <c r="M21">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="N21">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="O21">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2164,137 +2145,128 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45780.677083333343</v>
+        <v>45787.770833333343</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>0.44594278679277372</v>
+        <v>0.97568513421816472</v>
       </c>
       <c r="E22">
-        <v>9.8267484532155211E-2</v>
+        <v>2.2362664425428589E-2</v>
       </c>
       <c r="F22">
-        <v>0.45578972867507173</v>
+        <v>1.952201356407929E-3</v>
       </c>
       <c r="G22">
-        <v>0.54421027132492894</v>
+        <v>0.99804779864359328</v>
       </c>
       <c r="H22">
-        <v>0.9017325154678455</v>
+        <v>0.97763733557457266</v>
       </c>
       <c r="I22">
-        <v>0.5540572132072269</v>
+        <v>2.4314865781836521E-2</v>
       </c>
       <c r="J22">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="K22">
-        <v>4.4000000000000004</v>
+        <v>9.25</v>
       </c>
       <c r="L22">
-        <v>5.5</v>
-      </c>
-      <c r="M22">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N22">
-        <v>1.18</v>
-      </c>
-      <c r="O22">
-        <v>2.06</v>
+        <v>15</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45780.6875</v>
+        <v>45787.770833333343</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
       <c r="D23">
-        <v>0.57801715345260718</v>
+        <v>0.1185471060750288</v>
       </c>
       <c r="E23">
-        <v>0.2624099710654943</v>
+        <v>0.35219155671160679</v>
       </c>
       <c r="F23">
-        <v>0.15957287548189791</v>
+        <v>0.52926133721336321</v>
       </c>
       <c r="G23">
-        <v>0.84042712451810142</v>
+        <v>0.47073866278663562</v>
       </c>
       <c r="H23">
-        <v>0.73759002893450509</v>
+        <v>0.64780844328839204</v>
       </c>
       <c r="I23">
-        <v>0.42198284654739221</v>
+        <v>0.88145289392496995</v>
       </c>
       <c r="J23">
-        <v>1.54</v>
+        <v>2.97</v>
       </c>
       <c r="K23">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="L23">
-        <v>5.75</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="M23">
-        <v>1.1399999999999999</v>
+        <v>1.51</v>
       </c>
       <c r="N23">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="O23">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2303,63 +2275,63 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45780.708333333343</v>
+        <v>45787.770833333343</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
       <c r="D24">
-        <v>1.2675095047459319E-3</v>
+        <v>0.34359484743647228</v>
       </c>
       <c r="E24">
-        <v>0.34869833303432141</v>
+        <v>0.43170586441634412</v>
       </c>
       <c r="F24">
-        <v>0.65003415746093263</v>
+        <v>0.2246992881471841</v>
       </c>
       <c r="G24">
-        <v>0.34996584253906732</v>
+        <v>0.77530071185281635</v>
       </c>
       <c r="H24">
-        <v>0.65130166696567859</v>
+        <v>0.56829413558365638</v>
       </c>
       <c r="I24">
-        <v>0.99873249049525403</v>
+        <v>0.65640515256352816</v>
       </c>
       <c r="J24">
-        <v>2.66</v>
+        <v>1.28</v>
       </c>
       <c r="K24">
-        <v>3.85</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L24">
-        <v>2.11</v>
+        <v>9.25</v>
       </c>
       <c r="M24">
-        <v>1.46</v>
+        <v>1.07</v>
       </c>
       <c r="N24">
-        <v>1.23</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="O24">
-        <v>1.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="R24">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2368,264 +2340,264 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>1023</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45780.729166666657</v>
+        <v>45787.78125</v>
       </c>
       <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
       <c r="D25">
-        <v>0.2040017738616354</v>
+        <v>0.29424062179977051</v>
       </c>
       <c r="E25">
-        <v>0.13278287971224881</v>
+        <v>0.47492663525093171</v>
       </c>
       <c r="F25">
-        <v>0.66321534642611579</v>
+        <v>0.23083274294929629</v>
       </c>
       <c r="G25">
-        <v>0.33678465357388421</v>
+        <v>0.76916725705070221</v>
       </c>
       <c r="H25">
-        <v>0.86721712028775122</v>
+        <v>0.52507336474906685</v>
       </c>
       <c r="I25">
-        <v>0.79599822613836457</v>
+        <v>0.70575937820022805</v>
       </c>
       <c r="J25">
-        <v>2.29</v>
+        <v>1.79</v>
       </c>
       <c r="K25">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L25">
-        <v>2.64</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M25">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="N25">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="O25">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="R25">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>292</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45780.729166666657</v>
+        <v>45787.864583333343</v>
       </c>
       <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26">
+        <v>0.22649232257783539</v>
+      </c>
+      <c r="E26">
+        <v>0.49765769774509833</v>
+      </c>
+      <c r="F26">
+        <v>0.27584997967706532</v>
+      </c>
+      <c r="G26">
+        <v>0.72415002032293374</v>
+      </c>
+      <c r="H26">
+        <v>0.50234230225490073</v>
+      </c>
+      <c r="I26">
+        <v>0.77350767742216364</v>
+      </c>
+      <c r="J26">
+        <v>1.93</v>
+      </c>
+      <c r="K26">
+        <v>3.35</v>
+      </c>
+      <c r="L26">
+        <v>3.4</v>
+      </c>
+      <c r="M26">
+        <v>1.27</v>
+      </c>
+      <c r="N26">
+        <v>1.27</v>
+      </c>
+      <c r="O26">
+        <v>1.55</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>121</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45787.875</v>
+      </c>
+      <c r="B27" t="s">
         <v>68</v>
       </c>
-      <c r="D26">
-        <v>0.33642271732743351</v>
-      </c>
-      <c r="E26">
-        <v>0.20504864061326561</v>
-      </c>
-      <c r="F26">
-        <v>0.45852864205929988</v>
-      </c>
-      <c r="G26">
-        <v>0.54147135794069912</v>
-      </c>
-      <c r="H26">
-        <v>0.79495135938673345</v>
-      </c>
-      <c r="I26">
-        <v>0.66357728267256544</v>
-      </c>
-      <c r="J26">
-        <v>1.73</v>
-      </c>
-      <c r="K26">
-        <v>3.7</v>
-      </c>
-      <c r="L26">
-        <v>3.85</v>
-      </c>
-      <c r="M26">
-        <v>1.22</v>
-      </c>
-      <c r="N26">
-        <v>1.24</v>
-      </c>
-      <c r="O26">
-        <v>1.69</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>100</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>45780.75</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
-        <v>70</v>
-      </c>
       <c r="D27">
-        <v>6.5052751499143247E-2</v>
+        <v>0.88163732041928522</v>
       </c>
       <c r="E27">
-        <v>0.14251821440463591</v>
+        <v>8.5184681655342612E-2</v>
       </c>
       <c r="F27">
-        <v>0.79242903409622023</v>
+        <v>3.3177997925373098E-2</v>
       </c>
       <c r="G27">
-        <v>0.20757096590377919</v>
+        <v>0.96682200207462787</v>
       </c>
       <c r="H27">
-        <v>0.85748178559536348</v>
+        <v>0.91481531834465835</v>
       </c>
       <c r="I27">
-        <v>0.93494724850085609</v>
+        <v>0.1183626795807157</v>
       </c>
       <c r="J27">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="L27">
-        <v>1.44</v>
+        <v>5.75</v>
       </c>
       <c r="M27">
-        <v>2.04</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N27">
         <v>1.2</v>
       </c>
       <c r="O27">
-        <v>1.1200000000000001</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="T27">
-        <v>172</v>
+        <v>582</v>
       </c>
       <c r="U27">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45780.75</v>
+        <v>45787.875</v>
       </c>
       <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
       <c r="D28">
-        <v>0.89394496399069245</v>
+        <v>0.51173173447042397</v>
       </c>
       <c r="E28">
-        <v>7.6901037556441607E-2</v>
+        <v>0.18247051206181031</v>
       </c>
       <c r="F28">
-        <v>2.9153998452867268E-2</v>
+        <v>0.30579775346776722</v>
       </c>
       <c r="G28">
-        <v>0.97084600154713407</v>
+        <v>0.69420224653223428</v>
       </c>
       <c r="H28">
-        <v>0.92309896244355971</v>
+        <v>0.81752948793819114</v>
       </c>
       <c r="I28">
-        <v>0.10605503600930891</v>
+        <v>0.48826826552957753</v>
       </c>
       <c r="J28">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="K28">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="L28">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="M28">
-        <v>1.1399999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="N28">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="O28">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="P28">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="S28">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2633,55 +2605,55 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45780.770833333343</v>
+        <v>45787.875</v>
       </c>
       <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
         <v>73</v>
       </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
       <c r="D29">
-        <v>0.69125418203688771</v>
+        <v>6.568809607590391E-2</v>
       </c>
       <c r="E29">
-        <v>0.16935346083183969</v>
+        <v>0.26214922453004719</v>
       </c>
       <c r="F29">
-        <v>0.1393923571312734</v>
+        <v>0.67216267939404772</v>
       </c>
       <c r="G29">
-        <v>0.86060764286872737</v>
+        <v>0.32783732060595111</v>
       </c>
       <c r="H29">
-        <v>0.83064653916816111</v>
+        <v>0.73785077546995159</v>
       </c>
       <c r="I29">
-        <v>0.30874581796311312</v>
+        <v>0.93431190392409491</v>
       </c>
       <c r="J29">
-        <v>1.28</v>
+        <v>5.5</v>
       </c>
       <c r="K29">
-        <v>5.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L29">
-        <v>7</v>
+        <v>1.43</v>
       </c>
       <c r="M29">
-        <v>1.0900000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="N29">
-        <v>1.1200000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="O29">
-        <v>2.42</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2693,272 +2665,272 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45780.78125</v>
+        <v>45787.875</v>
       </c>
       <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
         <v>75</v>
       </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
       <c r="D30">
-        <v>9.3702673695245306E-3</v>
+        <v>0.15692164297360009</v>
       </c>
       <c r="E30">
-        <v>9.874578510331436E-2</v>
+        <v>0.30765256478479203</v>
       </c>
       <c r="F30">
-        <v>0.89188394752716182</v>
+        <v>0.53542579224160847</v>
       </c>
       <c r="G30">
-        <v>0.1081160524728389</v>
+        <v>0.46457420775839209</v>
       </c>
       <c r="H30">
-        <v>0.90125421489668633</v>
+        <v>0.69234743521520858</v>
       </c>
       <c r="I30">
-        <v>0.99062973263047616</v>
+        <v>0.84307835702640044</v>
       </c>
       <c r="J30">
-        <v>5.75</v>
+        <v>4.3</v>
       </c>
       <c r="K30">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="L30">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="M30">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="N30">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="O30">
-        <v>1.1399999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R30">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>1158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45780.791666666657</v>
+        <v>45787.875</v>
       </c>
       <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
         <v>77</v>
       </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
       <c r="D31">
-        <v>8.5084104083302092E-3</v>
+        <v>0.42384863073656021</v>
       </c>
       <c r="E31">
-        <v>6.3071409060347777E-2</v>
+        <v>0.39401570689975601</v>
       </c>
       <c r="F31">
-        <v>0.92842018053132314</v>
+        <v>0.18213566236368289</v>
       </c>
       <c r="G31">
-        <v>7.1579819468677988E-2</v>
+        <v>0.81786433763631616</v>
       </c>
       <c r="H31">
-        <v>0.93692859093965331</v>
+        <v>0.60598429310024304</v>
       </c>
       <c r="I31">
-        <v>0.99149158959167094</v>
+        <v>0.57615136926343891</v>
       </c>
       <c r="J31">
-        <v>1.87</v>
+        <v>2.84</v>
       </c>
       <c r="K31">
         <v>3.45</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>2.14</v>
       </c>
       <c r="M31">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="N31">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="O31">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="R31">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="T31">
-        <v>787</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45780.833333333343</v>
+        <v>45787.875</v>
       </c>
       <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
       <c r="D32">
-        <v>0.80831777060225052</v>
+        <v>0.17798460324928239</v>
       </c>
       <c r="E32">
-        <v>0.10126698725042541</v>
+        <v>0.26852452643176361</v>
       </c>
       <c r="F32">
-        <v>9.0415242147324812E-2</v>
+        <v>0.5534908703189535</v>
       </c>
       <c r="G32">
-        <v>0.9095847578526759</v>
+        <v>0.446509129681046</v>
       </c>
       <c r="H32">
-        <v>0.89873301274957529</v>
+        <v>0.73147547356823583</v>
       </c>
       <c r="I32">
-        <v>0.1916822293977502</v>
+        <v>0.82201539675071711</v>
       </c>
       <c r="J32">
+        <v>3.25</v>
+      </c>
+      <c r="K32">
+        <v>3.3</v>
+      </c>
+      <c r="L32">
+        <v>1.99</v>
+      </c>
+      <c r="M32">
         <v>1.59</v>
       </c>
-      <c r="K32">
-        <v>4.25</v>
-      </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-      <c r="M32">
-        <v>1.17</v>
-      </c>
       <c r="N32">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="O32">
-        <v>1.86</v>
+        <v>1.26</v>
       </c>
       <c r="P32">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="S32">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45780.864583333343</v>
+        <v>45787.875</v>
       </c>
       <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
         <v>81</v>
       </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
       <c r="D33">
-        <v>0.61905798536074519</v>
+        <v>1.789364189342609E-5</v>
       </c>
       <c r="E33">
-        <v>0.23789240624549041</v>
+        <v>7.9614390572668829E-3</v>
       </c>
       <c r="F33">
-        <v>0.14304960839376249</v>
+        <v>0.99202066730084015</v>
       </c>
       <c r="G33">
-        <v>0.85695039160623554</v>
+        <v>7.9793326991603082E-3</v>
       </c>
       <c r="H33">
-        <v>0.76210759375450765</v>
+        <v>0.99203856094273357</v>
       </c>
       <c r="I33">
-        <v>0.38094201463925292</v>
+        <v>0.99998210635810703</v>
       </c>
       <c r="J33">
-        <v>1.24</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L33">
-        <v>9.75</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M33">
-        <v>1.06</v>
+        <v>2.94</v>
       </c>
       <c r="N33">
-        <v>1.1299999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="O33">
-        <v>2.56</v>
+        <v>1.05</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>7</v>
+        <v>1166</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1181</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45780.875</v>
+        <v>45787.875</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
@@ -2967,63 +2939,63 @@
         <v>83</v>
       </c>
       <c r="D34">
-        <v>0.99446924877119491</v>
+        <v>8.7731784336120486E-2</v>
       </c>
       <c r="E34">
-        <v>5.5291598685612217E-3</v>
+        <v>0.2286545623655461</v>
       </c>
       <c r="F34">
-        <v>1.5913602449591709E-6</v>
+        <v>0.68361365329833479</v>
       </c>
       <c r="G34">
-        <v>0.99999840863975609</v>
+        <v>0.3163863467016666</v>
       </c>
       <c r="H34">
-        <v>0.99447084013143983</v>
+        <v>0.77134543763445529</v>
       </c>
       <c r="I34">
-        <v>5.530751228806181E-3</v>
+        <v>0.91226821566388083</v>
       </c>
       <c r="J34">
-        <v>1.06</v>
+        <v>3.7</v>
       </c>
       <c r="K34">
-        <v>13</v>
+        <v>3.7</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>1.76</v>
       </c>
       <c r="M34">
-        <v>1.02</v>
+        <v>1.66</v>
       </c>
       <c r="N34">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="O34">
-        <v>3.65</v>
+        <v>1.24</v>
       </c>
       <c r="P34">
-        <v>1216</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="S34">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45780.875</v>
+        <v>45787.875</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
@@ -3032,63 +3004,63 @@
         <v>85</v>
       </c>
       <c r="D35">
-        <v>4.244985864503105E-4</v>
+        <v>0.41596436043134383</v>
       </c>
       <c r="E35">
-        <v>3.0688835310808751E-2</v>
+        <v>0.33038123793944452</v>
       </c>
       <c r="F35">
-        <v>0.96888666610274177</v>
+        <v>0.25365440162921299</v>
       </c>
       <c r="G35">
-        <v>3.1113333897259059E-2</v>
+        <v>0.74634559837078829</v>
       </c>
       <c r="H35">
-        <v>0.9693111646891921</v>
+        <v>0.66961876206055682</v>
       </c>
       <c r="I35">
-        <v>0.99957550141355056</v>
+        <v>0.58403563956865745</v>
       </c>
       <c r="J35">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="K35">
-        <v>9</v>
+        <v>3.65</v>
       </c>
       <c r="L35">
-        <v>1.06</v>
+        <v>3.1</v>
       </c>
       <c r="M35">
-        <v>3.55</v>
+        <v>1.31</v>
       </c>
       <c r="N35">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="O35">
-        <v>1.02</v>
+        <v>1.54</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R35">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>1370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45780.878472222219</v>
+        <v>45787.875</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
@@ -3097,40 +3069,40 @@
         <v>87</v>
       </c>
       <c r="D36">
-        <v>2.7056221317272339E-2</v>
+        <v>6.8442250810142422E-2</v>
       </c>
       <c r="E36">
-        <v>0.19169872626550849</v>
+        <v>0.23713856525594429</v>
       </c>
       <c r="F36">
-        <v>0.78124505241721864</v>
+        <v>0.69441918393391477</v>
       </c>
       <c r="G36">
-        <v>0.2187549475827808</v>
+        <v>0.30558081606608672</v>
       </c>
       <c r="H36">
-        <v>0.80830127373449101</v>
+        <v>0.76286143474405721</v>
       </c>
       <c r="I36">
-        <v>0.97294377868272708</v>
+        <v>0.93155774918985901</v>
       </c>
       <c r="J36">
-        <v>5.75</v>
+        <v>1.99</v>
       </c>
       <c r="K36">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="L36">
-        <v>1.34</v>
+        <v>3.1</v>
       </c>
       <c r="M36">
-        <v>2.25</v>
+        <v>1.31</v>
       </c>
       <c r="N36">
-        <v>1.1399999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="O36">
-        <v>1.1200000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3139,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3148,12 +3120,12 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>953</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45781.510416666657</v>
+        <v>45788.5</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -3162,55 +3134,55 @@
         <v>89</v>
       </c>
       <c r="D37">
-        <v>0.42179019021238079</v>
+        <v>0.98898099950988305</v>
       </c>
       <c r="E37">
-        <v>0.1763323057730663</v>
+        <v>1.046105435134728E-2</v>
       </c>
       <c r="F37">
-        <v>0.40187750401455202</v>
+        <v>5.5794613876835252E-4</v>
       </c>
       <c r="G37">
-        <v>0.59812249598544709</v>
+        <v>0.99944205386123031</v>
       </c>
       <c r="H37">
-        <v>0.82366769422693276</v>
+        <v>0.98953894564865141</v>
       </c>
       <c r="I37">
-        <v>0.57820980978761827</v>
+        <v>1.101900049011563E-2</v>
       </c>
       <c r="J37">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="K37">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="N37">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="O37">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1113</v>
       </c>
       <c r="T37">
-        <v>165</v>
+        <v>1096</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3218,7 +3190,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45781.520833333343</v>
+        <v>45788.510416666657</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -3227,63 +3199,63 @@
         <v>91</v>
       </c>
       <c r="D38">
-        <v>7.884850470312374E-2</v>
+        <v>0.59749838313170367</v>
       </c>
       <c r="E38">
-        <v>0.26795720231129128</v>
+        <v>0.27462573555598851</v>
       </c>
       <c r="F38">
-        <v>0.65319429298558584</v>
+        <v>0.1278758813123082</v>
       </c>
       <c r="G38">
-        <v>0.34680570701441499</v>
+        <v>0.87212411868769224</v>
       </c>
       <c r="H38">
-        <v>0.73204279768870961</v>
+        <v>0.72537426444401187</v>
       </c>
       <c r="I38">
-        <v>0.92115149529687712</v>
+        <v>0.40250161686829672</v>
       </c>
       <c r="J38">
-        <v>4.0999999999999996</v>
+        <v>2.85</v>
       </c>
       <c r="K38">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L38">
-        <v>1.71</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="M38">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="N38">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="O38">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
       <c r="U38">
-        <v>627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45781.583333333343</v>
+        <v>45788.520833333343</v>
       </c>
       <c r="B39" t="s">
         <v>92</v>
@@ -3292,49 +3264,49 @@
         <v>93</v>
       </c>
       <c r="D39">
-        <v>0.24785082851343809</v>
+        <v>0.1914032918033097</v>
       </c>
       <c r="E39">
-        <v>0.32531205867910618</v>
+        <v>0.58334070875530308</v>
       </c>
       <c r="F39">
-        <v>0.42683711280745479</v>
+        <v>0.22525599944138799</v>
       </c>
       <c r="G39">
-        <v>0.57316288719254427</v>
+        <v>0.77474400055861281</v>
       </c>
       <c r="H39">
-        <v>0.67468794132089283</v>
+        <v>0.41665929124469769</v>
       </c>
       <c r="I39">
-        <v>0.75214917148656091</v>
+        <v>0.80859670819669105</v>
       </c>
       <c r="J39">
-        <v>2.02</v>
+        <v>1.41</v>
       </c>
       <c r="K39">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L39">
-        <v>2.91</v>
+        <v>6.25</v>
       </c>
       <c r="M39">
-        <v>1.33</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="N39">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="O39">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="R39">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3343,63 +3315,63 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>244</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45781.583333333343</v>
+        <v>45788.583333333343</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40">
-        <v>3.9106132295112367E-2</v>
+        <v>0.14699060475956591</v>
       </c>
       <c r="E40">
-        <v>0.3638036016258942</v>
+        <v>0.36431181885969061</v>
       </c>
       <c r="F40">
-        <v>0.59709026607899263</v>
+        <v>0.48869757638074318</v>
       </c>
       <c r="G40">
-        <v>0.4029097339210066</v>
+        <v>0.51130242361925649</v>
       </c>
       <c r="H40">
-        <v>0.63619639837410502</v>
+        <v>0.63568818114030912</v>
       </c>
       <c r="I40">
-        <v>0.96089386770488683</v>
+        <v>0.85300939524043384</v>
       </c>
       <c r="J40">
-        <v>1.53</v>
+        <v>2.09</v>
       </c>
       <c r="K40">
-        <v>4.1500000000000004</v>
+        <v>3.05</v>
       </c>
       <c r="L40">
-        <v>4.6500000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="N40">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="O40">
-        <v>1.9</v>
+        <v>1.47</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="R40">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3408,134 +3380,134 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>690</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45781.583333333343</v>
+        <v>45788.59375</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D41">
-        <v>0.97134917456049152</v>
+        <v>0.26754347978592402</v>
       </c>
       <c r="E41">
-        <v>2.7700220144864299E-2</v>
+        <v>0.45466222771889908</v>
       </c>
       <c r="F41">
-        <v>9.5060529464510929E-4</v>
+        <v>0.27779429249517851</v>
       </c>
       <c r="G41">
-        <v>0.99904939470535581</v>
+        <v>0.72220570750482316</v>
       </c>
       <c r="H41">
-        <v>0.9722997798551366</v>
+        <v>0.54533777228110258</v>
       </c>
       <c r="I41">
-        <v>2.8650825439509409E-2</v>
+        <v>0.73245652021407759</v>
       </c>
       <c r="J41">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="K41">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="L41">
-        <v>6.75</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>1.0900000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="N41">
-        <v>1.1299999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="O41">
-        <v>2.39</v>
+        <v>1.63</v>
       </c>
       <c r="P41">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41">
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45781.583333333343</v>
+        <v>45788.59375</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>0.31114592684307668</v>
+        <v>0.51887001604012928</v>
       </c>
       <c r="E42">
-        <v>0.17088446588546599</v>
+        <v>0.29304978765015488</v>
       </c>
       <c r="F42">
-        <v>0.51796960727145636</v>
+        <v>0.18808019630971681</v>
       </c>
       <c r="G42">
-        <v>0.48203039272854259</v>
+        <v>0.81191980369028416</v>
       </c>
       <c r="H42">
-        <v>0.82911553411453309</v>
+        <v>0.70695021234984612</v>
       </c>
       <c r="I42">
-        <v>0.68885407315692238</v>
+        <v>0.48112998395987172</v>
       </c>
       <c r="J42">
-        <v>2.73</v>
+        <v>2.19</v>
       </c>
       <c r="K42">
         <v>3.65</v>
       </c>
       <c r="L42">
-        <v>2.13</v>
+        <v>2.63</v>
       </c>
       <c r="M42">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="N42">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="O42">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R42">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="T42">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -3543,129 +3515,129 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45781.604166666657</v>
+        <v>45788.59375</v>
       </c>
       <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" t="s">
-        <v>100</v>
-      </c>
       <c r="D43">
-        <v>0.76764543704053878</v>
+        <v>0.37698690463828483</v>
       </c>
       <c r="E43">
-        <v>0.1203425000663558</v>
+        <v>0.53300057700910675</v>
       </c>
       <c r="F43">
-        <v>0.11201206289310491</v>
+        <v>9.0012518352606638E-2</v>
       </c>
       <c r="G43">
-        <v>0.88798793710689461</v>
+        <v>0.90998748164739163</v>
       </c>
       <c r="H43">
-        <v>0.87965749993364373</v>
+        <v>0.46699942299089148</v>
       </c>
       <c r="I43">
-        <v>0.23235456295946069</v>
+        <v>0.62301309536171334</v>
       </c>
       <c r="J43">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="K43">
-        <v>3.95</v>
+        <v>5.25</v>
       </c>
       <c r="L43">
-        <v>2.21</v>
+        <v>8.5</v>
       </c>
       <c r="M43">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="N43">
-        <v>1.24</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="O43">
-        <v>1.39</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="P43">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45781.604166666657</v>
+        <v>45788.604166666657</v>
       </c>
       <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="s">
-        <v>102</v>
-      </c>
       <c r="D44">
-        <v>0.57413854505165995</v>
+        <v>0.31377979417670548</v>
       </c>
       <c r="E44">
-        <v>0.16309738518099959</v>
+        <v>0.15435415432870639</v>
       </c>
       <c r="F44">
-        <v>0.26276406976734012</v>
+        <v>0.53186605149458566</v>
       </c>
       <c r="G44">
-        <v>0.73723593023265954</v>
+        <v>0.4681339485054119</v>
       </c>
       <c r="H44">
-        <v>0.83690261481900008</v>
+        <v>0.8456458456712912</v>
       </c>
       <c r="I44">
-        <v>0.42586145494833971</v>
+        <v>0.68622020582329202</v>
       </c>
       <c r="J44">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="K44">
-        <v>3.8</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="L44">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="M44">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="N44">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="O44">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P44">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="S44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -3673,49 +3645,49 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45781.625</v>
+        <v>45788.604166666657</v>
       </c>
       <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
         <v>103</v>
       </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
       <c r="D45">
-        <v>4.6834032462032219E-3</v>
+        <v>8.8544370903637212E-4</v>
       </c>
       <c r="E45">
-        <v>6.0594971736751158E-2</v>
+        <v>3.1324130512761797E-2</v>
       </c>
       <c r="F45">
-        <v>0.93472162501704581</v>
+        <v>0.96779042577820118</v>
       </c>
       <c r="G45">
-        <v>6.5278374982954385E-2</v>
+        <v>3.2209574221798168E-2</v>
       </c>
       <c r="H45">
-        <v>0.93940502826324901</v>
+        <v>0.96867586948723761</v>
       </c>
       <c r="I45">
-        <v>0.99531659675379691</v>
+        <v>0.99911455629096302</v>
       </c>
       <c r="J45">
-        <v>10.5</v>
+        <v>2.09</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="L45">
-        <v>1.18</v>
+        <v>2.85</v>
       </c>
       <c r="M45">
-        <v>2.81</v>
+        <v>1.38</v>
       </c>
       <c r="N45">
-        <v>1.1000000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="O45">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -3724,72 +3696,72 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>693</v>
+        <v>476</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>433</v>
+        <v>968</v>
       </c>
       <c r="U45">
-        <v>1227</v>
+        <v>950</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45781.625</v>
+        <v>45788.625</v>
       </c>
       <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
         <v>105</v>
       </c>
-      <c r="C46" t="s">
-        <v>106</v>
-      </c>
       <c r="D46">
-        <v>0.28898295149957048</v>
+        <v>0.20331924574951329</v>
       </c>
       <c r="E46">
-        <v>0.50537218952685659</v>
+        <v>0.47420899498266522</v>
       </c>
       <c r="F46">
-        <v>0.2056448589735739</v>
+        <v>0.32247175926782251</v>
       </c>
       <c r="G46">
-        <v>0.79435514102642713</v>
+        <v>0.67752824073217854</v>
       </c>
       <c r="H46">
-        <v>0.49462781047314441</v>
+        <v>0.52579100501733578</v>
       </c>
       <c r="I46">
-        <v>0.71101704850043046</v>
+        <v>0.79668075425048768</v>
       </c>
       <c r="J46">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K46">
+        <v>3.05</v>
+      </c>
+      <c r="L46">
         <v>3.5</v>
       </c>
-      <c r="L46">
-        <v>3.95</v>
-      </c>
       <c r="M46">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="N46">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="O46">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3798,264 +3770,264 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>239</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45781.645833333343</v>
+        <v>45788.645833333343</v>
       </c>
       <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
         <v>107</v>
       </c>
-      <c r="C47" t="s">
-        <v>108</v>
-      </c>
       <c r="D47">
-        <v>0.29741687800452121</v>
+        <v>7.639665535940815E-2</v>
       </c>
       <c r="E47">
-        <v>0.38361302369767752</v>
+        <v>0.15122035421333391</v>
       </c>
       <c r="F47">
-        <v>0.31897009829780198</v>
+        <v>0.77238299042725811</v>
       </c>
       <c r="G47">
-        <v>0.68102990170219879</v>
+        <v>0.22761700957274211</v>
       </c>
       <c r="H47">
-        <v>0.6163869763023232</v>
+        <v>0.84877964578666631</v>
       </c>
       <c r="I47">
-        <v>0.70258312199547945</v>
+        <v>0.92360334464059202</v>
       </c>
       <c r="J47">
-        <v>1.66</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K47">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L47">
-        <v>4.1500000000000004</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="M47">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="N47">
         <v>1.23</v>
       </c>
       <c r="O47">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>35</v>
+        <v>352</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="U47">
-        <v>247</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45781.677083333343</v>
+        <v>45788.677083333343</v>
       </c>
       <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
         <v>109</v>
       </c>
-      <c r="C48" t="s">
-        <v>110</v>
-      </c>
       <c r="D48">
-        <v>0.23190773562192321</v>
+        <v>0.88227158227912583</v>
       </c>
       <c r="E48">
-        <v>0.17045277577194559</v>
+        <v>7.3832385920914081E-2</v>
       </c>
       <c r="F48">
-        <v>0.59763948860613025</v>
+        <v>4.3896031799960912E-2</v>
       </c>
       <c r="G48">
-        <v>0.4023605113938688</v>
+        <v>0.95610396820003996</v>
       </c>
       <c r="H48">
-        <v>0.82954722422805349</v>
+        <v>0.92616761407908677</v>
       </c>
       <c r="I48">
-        <v>0.76809226437807587</v>
+        <v>0.117728417720875</v>
       </c>
       <c r="J48">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="K48">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
-        <v>1.1499999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="N48">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="O48">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="T48">
-        <v>169</v>
+        <v>678</v>
       </c>
       <c r="U48">
-        <v>380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45781.6875</v>
+        <v>45788.6875</v>
       </c>
       <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
         <v>111</v>
       </c>
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
       <c r="D49">
-        <v>9.7504699581312484E-2</v>
+        <v>0.42737105521591567</v>
       </c>
       <c r="E49">
-        <v>0.39359350140536042</v>
+        <v>0.11063604033841511</v>
       </c>
       <c r="F49">
-        <v>0.50890179901332633</v>
+        <v>0.46199290444566948</v>
       </c>
       <c r="G49">
-        <v>0.49109820098667289</v>
+        <v>0.53800709555433079</v>
       </c>
       <c r="H49">
-        <v>0.6064064985946388</v>
+        <v>0.88936395966158521</v>
       </c>
       <c r="I49">
-        <v>0.90249530041868675</v>
+        <v>0.57262894478408455</v>
       </c>
       <c r="J49">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="K49">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L49">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M49">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="N49">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="O49">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="U49">
-        <v>670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45781.71875</v>
+        <v>45788.697916666657</v>
       </c>
       <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
-        <v>114</v>
-      </c>
       <c r="D50">
-        <v>0.92576875224796207</v>
+        <v>0.72899777343339678</v>
       </c>
       <c r="E50">
-        <v>6.4225319473732362E-2</v>
+        <v>0.24068335659224771</v>
       </c>
       <c r="F50">
-        <v>1.000592827830557E-2</v>
+        <v>3.031886997435464E-2</v>
       </c>
       <c r="G50">
-        <v>0.9899940717216944</v>
+        <v>0.96968113002564449</v>
       </c>
       <c r="H50">
-        <v>0.93577468052626767</v>
+        <v>0.7593166434077514</v>
       </c>
       <c r="I50">
-        <v>7.4231247752037932E-2</v>
+        <v>0.27100222656660228</v>
       </c>
       <c r="J50">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="K50">
-        <v>4.0999999999999996</v>
+        <v>4.45</v>
       </c>
       <c r="L50">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="M50">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N50">
         <v>1.19</v>
       </c>
-      <c r="N50">
-        <v>1.2</v>
-      </c>
       <c r="O50">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="P50">
-        <v>719</v>
+        <v>169</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
       <c r="S50">
-        <v>1125</v>
+        <v>931</v>
       </c>
       <c r="T50">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -4063,244 +4035,244 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45781.71875</v>
+        <v>45788.697916666657</v>
       </c>
       <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
         <v>115</v>
       </c>
-      <c r="C51" t="s">
-        <v>116</v>
-      </c>
       <c r="D51">
-        <v>0.36705210641242442</v>
+        <v>0.88950489744075045</v>
       </c>
       <c r="E51">
-        <v>0.1540963160177854</v>
+        <v>9.9376817045743068E-2</v>
       </c>
       <c r="F51">
-        <v>0.47885157756979158</v>
+        <v>1.111828551350582E-2</v>
       </c>
       <c r="G51">
-        <v>0.52114842243020987</v>
+        <v>0.98888171448649353</v>
       </c>
       <c r="H51">
-        <v>0.84590368398221605</v>
+        <v>0.90062318295425625</v>
       </c>
       <c r="I51">
-        <v>0.63294789358757697</v>
+        <v>0.1104951025592489</v>
       </c>
       <c r="J51">
-        <v>1.85</v>
+        <v>1.27</v>
       </c>
       <c r="K51">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>9.25</v>
       </c>
       <c r="M51">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="N51">
-        <v>1.26</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="O51">
-        <v>1.6</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="T51">
-        <v>287</v>
+        <v>92</v>
       </c>
       <c r="U51">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45781.71875</v>
+        <v>45788.729166666657</v>
       </c>
       <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
-        <v>118</v>
-      </c>
       <c r="D52">
-        <v>0.34589878612168212</v>
+        <v>0.95346060731764759</v>
       </c>
       <c r="E52">
-        <v>0.47451134198378531</v>
+        <v>3.9873838372296813E-2</v>
       </c>
       <c r="F52">
-        <v>0.1795898718945341</v>
+        <v>6.6655543100570579E-3</v>
       </c>
       <c r="G52">
-        <v>0.82041012810546743</v>
+        <v>0.99333444568994445</v>
       </c>
       <c r="H52">
-        <v>0.52548865801621625</v>
+        <v>0.9601261616277047</v>
       </c>
       <c r="I52">
-        <v>0.65410121387831943</v>
+        <v>4.6539392682353867E-2</v>
       </c>
       <c r="J52">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="L52">
-        <v>7.25</v>
+        <v>5.75</v>
       </c>
       <c r="M52">
-        <v>1.0900000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="N52">
-        <v>1.1399999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="O52">
-        <v>2.37</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="Q52">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="U52">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45781.729166666657</v>
+        <v>45788.75</v>
       </c>
       <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="s">
-        <v>120</v>
-      </c>
       <c r="D53">
-        <v>2.9883950730946209E-2</v>
+        <v>0.2217894621146648</v>
       </c>
       <c r="E53">
-        <v>0.121151544065631</v>
+        <v>0.20085499142109511</v>
       </c>
       <c r="F53">
-        <v>0.84896450520342215</v>
+        <v>0.57735554646424125</v>
       </c>
       <c r="G53">
-        <v>0.15103549479657721</v>
+        <v>0.42264445353575991</v>
       </c>
       <c r="H53">
-        <v>0.87884845593436833</v>
+        <v>0.79914500857890602</v>
       </c>
       <c r="I53">
-        <v>0.97011604926905315</v>
+        <v>0.77821053788533634</v>
       </c>
       <c r="J53">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="K53">
-        <v>3.5</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="L53">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="M53">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="N53">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="O53">
-        <v>1.29</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45781.75</v>
+        <v>45788.770833333343</v>
       </c>
       <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
         <v>121</v>
       </c>
-      <c r="C54" t="s">
-        <v>122</v>
-      </c>
       <c r="D54">
-        <v>0.5586249812753119</v>
+        <v>0.54412071250820815</v>
       </c>
       <c r="E54">
-        <v>0.15526734814694931</v>
+        <v>0.25715540616774157</v>
       </c>
       <c r="F54">
-        <v>0.28610767057774061</v>
+        <v>0.1987238813240495</v>
       </c>
       <c r="G54">
-        <v>0.71389232942226122</v>
+        <v>0.80127611867594972</v>
       </c>
       <c r="H54">
-        <v>0.84473265185305246</v>
+        <v>0.74284459383225765</v>
       </c>
       <c r="I54">
-        <v>0.44137501872468993</v>
+        <v>0.45587928749179107</v>
       </c>
       <c r="J54">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="K54">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="L54">
-        <v>4.8499999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="M54">
-        <v>1.1599999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="N54">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="O54">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -4309,13 +4281,13 @@
         <v>0</v>
       </c>
       <c r="R54">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -4323,182 +4295,182 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45781.770833333343</v>
+        <v>45788.8125</v>
       </c>
       <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
         <v>123</v>
       </c>
-      <c r="C55" t="s">
-        <v>124</v>
-      </c>
       <c r="D55">
-        <v>1.3659432243168771E-2</v>
+        <v>0.1261745809104321</v>
       </c>
       <c r="E55">
-        <v>0.1554920490237108</v>
+        <v>0.31849063472582329</v>
       </c>
       <c r="F55">
-        <v>0.83084851873312138</v>
+        <v>0.55533478436374339</v>
       </c>
       <c r="G55">
-        <v>0.16915148126687959</v>
+        <v>0.44466521563625538</v>
       </c>
       <c r="H55">
-        <v>0.84450795097629017</v>
+        <v>0.68150936527417549</v>
       </c>
       <c r="I55">
-        <v>0.98634056775683221</v>
+        <v>0.87382541908956668</v>
       </c>
       <c r="J55">
-        <v>2.99</v>
+        <v>1.45</v>
       </c>
       <c r="K55">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="L55">
-        <v>2.14</v>
+        <v>5.25</v>
       </c>
       <c r="M55">
-        <v>1.45</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="N55">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="O55">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R55">
-        <v>456</v>
+        <v>123</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>1021</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45781.8125</v>
+        <v>45788.864583333343</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>0.1607293162697063</v>
+        <v>0.87321940571746792</v>
       </c>
       <c r="E56">
-        <v>0.17179004129845429</v>
+        <v>0.1137728696992452</v>
       </c>
       <c r="F56">
-        <v>0.66748064243184035</v>
+        <v>1.3007724583287561E-2</v>
       </c>
       <c r="G56">
-        <v>0.33251935756816059</v>
+        <v>0.98699227541671308</v>
       </c>
       <c r="H56">
-        <v>0.82820995870154668</v>
+        <v>0.88622713030075551</v>
       </c>
       <c r="I56">
-        <v>0.83927068373029468</v>
+        <v>0.1267805942825328</v>
       </c>
       <c r="J56">
-        <v>2.0699999999999998</v>
+        <v>1.25</v>
       </c>
       <c r="K56">
-        <v>3.65</v>
+        <v>4.75</v>
       </c>
       <c r="L56">
-        <v>2.84</v>
+        <v>10</v>
       </c>
       <c r="M56">
-        <v>1.35</v>
+        <v>1.06</v>
       </c>
       <c r="N56">
-        <v>1.25</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="O56">
-        <v>1.48</v>
+        <v>2.5</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="T56">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="U56">
-        <v>487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45781.864583333343</v>
+        <v>45788.875</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57">
-        <v>0.71641985019340848</v>
+        <v>0.75073891650042646</v>
       </c>
       <c r="E57">
-        <v>0.21455630790151661</v>
+        <v>0.1568459324684561</v>
       </c>
       <c r="F57">
-        <v>6.9023841905073421E-2</v>
+        <v>9.2415151031117054E-2</v>
       </c>
       <c r="G57">
-        <v>0.93097615809492507</v>
+        <v>0.90758484896888258</v>
       </c>
       <c r="H57">
-        <v>0.78544369209848186</v>
+        <v>0.84315406753154354</v>
       </c>
       <c r="I57">
-        <v>0.28358014980659002</v>
+        <v>0.24926108349957321</v>
       </c>
       <c r="J57">
-        <v>2.21</v>
+        <v>1.5</v>
       </c>
       <c r="K57">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M57">
-        <v>1.32</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="N57">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="O57">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="P57">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -4507,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>774</v>
+        <v>310</v>
       </c>
       <c r="T57">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -4518,114 +4490,114 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45781.864583333343</v>
+        <v>45789.770833333343</v>
       </c>
       <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
         <v>128</v>
       </c>
-      <c r="C58" t="s">
-        <v>129</v>
-      </c>
       <c r="D58">
-        <v>0.73860371466726471</v>
+        <v>8.0479717989038357E-2</v>
       </c>
       <c r="E58">
-        <v>0.20271245368537921</v>
+        <v>0.26359666179322377</v>
       </c>
       <c r="F58">
-        <v>5.8683831647357243E-2</v>
+        <v>0.65592362021773876</v>
       </c>
       <c r="G58">
-        <v>0.94131616835264387</v>
+        <v>0.34407637978226208</v>
       </c>
       <c r="H58">
-        <v>0.79728754631462195</v>
+        <v>0.73640333820677717</v>
       </c>
       <c r="I58">
-        <v>0.26139628533273651</v>
+        <v>0.91952028201096248</v>
       </c>
       <c r="J58">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="K58">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L58">
-        <v>2.96</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="M58">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="N58">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="O58">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="P58">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="S58">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>711</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45781.875</v>
+        <v>45789.864583333343</v>
       </c>
       <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
         <v>130</v>
       </c>
-      <c r="C59" t="s">
-        <v>131</v>
-      </c>
       <c r="D59">
-        <v>0.20509808801195101</v>
+        <v>0.10426073025703129</v>
       </c>
       <c r="E59">
-        <v>0.30388576279043739</v>
+        <v>0.1739551409346301</v>
       </c>
       <c r="F59">
-        <v>0.491016149197611</v>
+        <v>0.72178412880833909</v>
       </c>
       <c r="G59">
-        <v>0.50898385080238839</v>
+        <v>0.27821587119166141</v>
       </c>
       <c r="H59">
-        <v>0.696114237209562</v>
+        <v>0.8260448590653704</v>
       </c>
       <c r="I59">
-        <v>0.79490191198804838</v>
+        <v>0.89573926974296914</v>
       </c>
       <c r="J59">
-        <v>2.2200000000000002</v>
+        <v>1.71</v>
       </c>
       <c r="K59">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="L59">
-        <v>2.93</v>
+        <v>3.95</v>
       </c>
       <c r="M59">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="N59">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="O59">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -4634,211 +4606,16 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="U59">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>45782.833333333343</v>
-      </c>
-      <c r="B60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60">
-        <v>0.10783055145354629</v>
-      </c>
-      <c r="E60">
-        <v>0.22446210329827371</v>
-      </c>
-      <c r="F60">
-        <v>0.66770734524818043</v>
-      </c>
-      <c r="G60">
-        <v>0.33229265475182002</v>
-      </c>
-      <c r="H60">
-        <v>0.77553789670172668</v>
-      </c>
-      <c r="I60">
-        <v>0.89216944854645419</v>
-      </c>
-      <c r="J60">
-        <v>2.15</v>
-      </c>
-      <c r="K60">
-        <v>3.35</v>
-      </c>
-      <c r="L60">
-        <v>2.88</v>
-      </c>
-      <c r="M60">
-        <v>1.34</v>
-      </c>
-      <c r="N60">
-        <v>1.28</v>
-      </c>
-      <c r="O60">
-        <v>1.45</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>244</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>45782.864583333343</v>
-      </c>
-      <c r="B61" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61">
-        <v>1.268661795302293E-2</v>
-      </c>
-      <c r="E61">
-        <v>6.6889451761717081E-2</v>
-      </c>
-      <c r="F61">
-        <v>0.92042393028525971</v>
-      </c>
-      <c r="G61">
-        <v>7.9576069714740016E-2</v>
-      </c>
-      <c r="H61">
-        <v>0.93311054823828266</v>
-      </c>
-      <c r="I61">
-        <v>0.98731338204697683</v>
-      </c>
-      <c r="J61">
-        <v>4.05</v>
-      </c>
-      <c r="K61">
-        <v>3.5</v>
-      </c>
-      <c r="L61">
-        <v>1.73</v>
-      </c>
-      <c r="M61">
-        <v>1.69</v>
-      </c>
-      <c r="N61">
-        <v>1.25</v>
-      </c>
-      <c r="O61">
-        <v>1.21</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>670</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>761</v>
-      </c>
-      <c r="U61">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>45782.875</v>
-      </c>
-      <c r="B62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62">
-        <v>0.246074494921869</v>
-      </c>
-      <c r="E62">
-        <v>0.25832173333632852</v>
-      </c>
-      <c r="F62">
-        <v>0.49560377174180431</v>
-      </c>
-      <c r="G62">
-        <v>0.50439622825819752</v>
-      </c>
-      <c r="H62">
-        <v>0.74167826666367331</v>
-      </c>
-      <c r="I62">
-        <v>0.75392550507813283</v>
-      </c>
-      <c r="J62">
-        <v>1.84</v>
-      </c>
-      <c r="K62">
-        <v>3.2</v>
-      </c>
-      <c r="L62">
-        <v>3.95</v>
-      </c>
-      <c r="M62">
-        <v>1.21</v>
-      </c>
-      <c r="N62">
-        <v>1.29</v>
-      </c>
-      <c r="O62">
-        <v>1.61</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>117</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>311</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
